--- a/시장분석용_정보/시장분석용_4884032000.xlsx
+++ b/시장분석용_정보/시장분석용_4884032000.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
-  <si>
-    <t>중첩매칭</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
+  <si>
+    <t>중복체크</t>
+  </si>
+  <si>
+    <t>sim_cd</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>TA_YM</t>
@@ -25,19 +31,16 @@
     <t>year</t>
   </si>
   <si>
-    <t>MCT_NO</t>
-  </si>
-  <si>
     <t>MCT_BRN</t>
   </si>
   <si>
     <t>MCT_NM</t>
   </si>
   <si>
-    <t>GDS_AF_MCT_AR2</t>
-  </si>
-  <si>
-    <t>sim_cd</t>
+    <t>address</t>
+  </si>
+  <si>
+    <t>hdong_code</t>
   </si>
   <si>
     <t>area</t>
@@ -46,9 +49,6 @@
     <t>hos_type</t>
   </si>
   <si>
-    <t>hdong_code</t>
-  </si>
-  <si>
     <t>EST_HGA</t>
   </si>
   <si>
@@ -58,6 +58,54 @@
     <t>AVG_AMT</t>
   </si>
   <si>
+    <t>WK_RT</t>
+  </si>
+  <si>
+    <t>WE_RT</t>
+  </si>
+  <si>
+    <t>WK_1_RT</t>
+  </si>
+  <si>
+    <t>WK_2_RT</t>
+  </si>
+  <si>
+    <t>WK_3_RT</t>
+  </si>
+  <si>
+    <t>WK_4_RT</t>
+  </si>
+  <si>
+    <t>WK_5_RT</t>
+  </si>
+  <si>
+    <t>WK_6_RT</t>
+  </si>
+  <si>
+    <t>WK_7_RT</t>
+  </si>
+  <si>
+    <t>TIME_0510_RT</t>
+  </si>
+  <si>
+    <t>TIME_1114_RT</t>
+  </si>
+  <si>
+    <t>TIME_1517_RT</t>
+  </si>
+  <si>
+    <t>TIME_1819_RT</t>
+  </si>
+  <si>
+    <t>TIME_2021_RT</t>
+  </si>
+  <si>
+    <t>TIME_2224_RT</t>
+  </si>
+  <si>
+    <t>TIME_0104_RT</t>
+  </si>
+  <si>
     <t>F20_RT</t>
   </si>
   <si>
@@ -112,64 +160,109 @@
     <t>IC_1099_RT</t>
   </si>
   <si>
-    <t>202101 1809101472</t>
-  </si>
-  <si>
-    <t>202102 1809101472</t>
-  </si>
-  <si>
-    <t>202103 1809101472</t>
-  </si>
-  <si>
-    <t>202104 1809101472</t>
-  </si>
-  <si>
-    <t>202105 1809101472</t>
-  </si>
-  <si>
-    <t>202106 1809101472</t>
-  </si>
-  <si>
-    <t>202107 1809101472</t>
-  </si>
-  <si>
-    <t>202108 1809101472</t>
-  </si>
-  <si>
-    <t>202109 1809101472</t>
-  </si>
-  <si>
-    <t>202110 1809101472</t>
-  </si>
-  <si>
-    <t>202111 1809101472</t>
-  </si>
-  <si>
-    <t>202112 1809101472</t>
-  </si>
-  <si>
-    <t>202201 1809101472</t>
-  </si>
-  <si>
-    <t>202202 1809101472</t>
-  </si>
-  <si>
-    <t>202203 1809101472</t>
-  </si>
-  <si>
-    <t>202204 1809101472</t>
-  </si>
-  <si>
-    <t>202205 1809101472</t>
+    <t>LIFE_01_RT</t>
+  </si>
+  <si>
+    <t>LIFE_02_RT</t>
+  </si>
+  <si>
+    <t>LIFE_03_RT</t>
+  </si>
+  <si>
+    <t>LIFE_04_RT</t>
+  </si>
+  <si>
+    <t>LIFE_05_RT</t>
+  </si>
+  <si>
+    <t>LIFE_06_RT</t>
+  </si>
+  <si>
+    <t>FTJB_HUWF_RT</t>
+  </si>
+  <si>
+    <t>STUD_RT</t>
+  </si>
+  <si>
+    <t>SCTY_EAR_H_RT</t>
+  </si>
+  <si>
+    <t>GDS_01_RT</t>
+  </si>
+  <si>
+    <t>GDS_02_RT</t>
+  </si>
+  <si>
+    <t>GDS_03_RT</t>
+  </si>
+  <si>
+    <t>REVISIT_RT</t>
+  </si>
+  <si>
+    <t>FREQ_RT</t>
+  </si>
+  <si>
+    <t>1809101472 202101</t>
+  </si>
+  <si>
+    <t>1809101472 202102</t>
+  </si>
+  <si>
+    <t>1809101472 202103</t>
+  </si>
+  <si>
+    <t>1809101472 202104</t>
+  </si>
+  <si>
+    <t>1809101472 202105</t>
+  </si>
+  <si>
+    <t>1809101472 202106</t>
+  </si>
+  <si>
+    <t>1809101472 202107</t>
+  </si>
+  <si>
+    <t>1809101472 202108</t>
+  </si>
+  <si>
+    <t>1809101472 202109</t>
+  </si>
+  <si>
+    <t>1809101472 202110</t>
+  </si>
+  <si>
+    <t>1809101472 202111</t>
+  </si>
+  <si>
+    <t>1809101472 202112</t>
+  </si>
+  <si>
+    <t>1809101472 202201</t>
+  </si>
+  <si>
+    <t>1809101472 202202</t>
+  </si>
+  <si>
+    <t>1809101472 202203</t>
+  </si>
+  <si>
+    <t>1809101472 202204</t>
+  </si>
+  <si>
+    <t>1809101472 202205</t>
+  </si>
+  <si>
+    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkNDgxOTYxIzIxIyQxIyQxIyQ5OSQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
+  </si>
+  <si>
+    <t>경상남도</t>
   </si>
   <si>
     <t>상주우리의원</t>
   </si>
   <si>
-    <t>경상남도 남해군 상주면 남해대로 699-3 .</t>
-  </si>
-  <si>
-    <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkNDgxOTYxIzIxIyQxIyQxIyQ5OSQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
+    <t>경상남도 남해군 상주면 남해대로 699 ()</t>
   </si>
   <si>
     <t>소아청소년과, 일반의원</t>
@@ -530,13 +623,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:63">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,43 +726,133 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:63">
       <c r="A2" s="1">
-        <v>264454</v>
+        <v>35785</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2">
         <v>202101</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>2021</v>
       </c>
-      <c r="E2">
-        <v>121289698</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
         <v>1809101472</v>
       </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J2">
+        <v>4884032000</v>
+      </c>
+      <c r="K2">
         <v>78.05151515151515</v>
       </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2">
-        <v>4884032000</v>
+      <c r="L2" t="s">
+        <v>83</v>
       </c>
       <c r="M2">
         <v>271530</v>
@@ -681,7 +864,7 @@
         <v>10700</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -690,87 +873,177 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>22.43</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>12.52</v>
+      </c>
+      <c r="Z2">
         <v>78.5</v>
       </c>
-      <c r="T2">
+      <c r="AA2">
         <v>8.970000000000001</v>
       </c>
-      <c r="U2">
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>78.5</v>
+      </c>
+      <c r="AJ2">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AK2">
         <v>12.52</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
         <v>21.5</v>
       </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
         <v>78.5</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>12.52</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>78.5</v>
+      </c>
+      <c r="BC2">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>12.52</v>
+      </c>
+      <c r="BG2">
+        <v>65.05</v>
+      </c>
+      <c r="BH2">
+        <v>65.05</v>
+      </c>
+      <c r="BI2">
+        <v>65.05</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:63">
       <c r="A3" s="1">
-        <v>286280</v>
+        <v>38580</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3">
         <v>202102</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>2021</v>
       </c>
-      <c r="E3">
-        <v>121289698</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>1809101472</v>
       </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J3">
+        <v>4884032000</v>
+      </c>
+      <c r="K3">
         <v>78.05151515151515</v>
       </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3">
-        <v>4884032000</v>
+      <c r="L3" t="s">
+        <v>83</v>
       </c>
       <c r="M3">
         <v>653619</v>
@@ -782,96 +1055,186 @@
         <v>10550</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>6.24</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>31.6</v>
       </c>
       <c r="T3">
+        <v>19.59</v>
+      </c>
+      <c r="U3">
+        <v>41.94</v>
+      </c>
+      <c r="V3">
+        <v>6.87</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>26.15</v>
+      </c>
+      <c r="Z3">
+        <v>11.77</v>
+      </c>
+      <c r="AA3">
+        <v>62.09</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>6.24</v>
+      </c>
+      <c r="AI3">
+        <v>31.6</v>
+      </c>
+      <c r="AJ3">
         <v>40.92</v>
       </c>
-      <c r="U3">
+      <c r="AK3">
         <v>8.289999999999999</v>
       </c>
-      <c r="V3">
+      <c r="AL3">
         <v>5.85</v>
       </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
         <v>7.11</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
         <v>22.12</v>
       </c>
-      <c r="AD3">
+      <c r="AT3">
         <v>65.8</v>
       </c>
-      <c r="AE3">
+      <c r="AU3">
         <v>12.09</v>
       </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>14.53</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>5.85</v>
+      </c>
+      <c r="BA3">
+        <v>31.6</v>
+      </c>
+      <c r="BB3">
+        <v>40.13</v>
+      </c>
+      <c r="BC3">
+        <v>7.9</v>
+      </c>
+      <c r="BD3">
+        <v>5.92</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>8.289999999999999</v>
+      </c>
+      <c r="BG3">
+        <v>57.11</v>
+      </c>
+      <c r="BH3">
+        <v>71.09</v>
+      </c>
+      <c r="BI3">
+        <v>76.94</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>9.1</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:63">
       <c r="A4" s="1">
-        <v>308104</v>
+        <v>41373</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4">
         <v>202103</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>2021</v>
       </c>
-      <c r="E4">
-        <v>121289698</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
         <v>1809101472</v>
       </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J4">
+        <v>4884032000</v>
+      </c>
+      <c r="K4">
         <v>78.05151515151515</v>
       </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4">
-        <v>4884032000</v>
+      <c r="L4" t="s">
+        <v>83</v>
       </c>
       <c r="M4">
         <v>937111</v>
@@ -883,96 +1246,186 @@
         <v>12293</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>18.87</v>
+      </c>
+      <c r="T4">
+        <v>14.8</v>
+      </c>
+      <c r="U4">
+        <v>5.21</v>
+      </c>
+      <c r="V4">
+        <v>31.07</v>
+      </c>
+      <c r="W4">
+        <v>30.04</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>11.06</v>
+      </c>
+      <c r="Z4">
+        <v>19.9</v>
+      </c>
+      <c r="AA4">
+        <v>69.03</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>18.98</v>
       </c>
-      <c r="R4">
+      <c r="AH4">
         <v>20.77</v>
       </c>
-      <c r="S4">
+      <c r="AI4">
         <v>12.85</v>
       </c>
-      <c r="T4">
+      <c r="AJ4">
         <v>2.55</v>
       </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>6.34</v>
       </c>
-      <c r="X4">
+      <c r="AN4">
         <v>11.33</v>
       </c>
-      <c r="Y4">
+      <c r="AO4">
         <v>27.17</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
         <v>14.26</v>
       </c>
-      <c r="AD4">
+      <c r="AT4">
         <v>81.78</v>
       </c>
-      <c r="AE4">
+      <c r="AU4">
         <v>3.96</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>18.98</v>
+      </c>
+      <c r="AY4">
+        <v>3.36</v>
+      </c>
+      <c r="AZ4">
+        <v>4.83</v>
+      </c>
+      <c r="BA4">
+        <v>61.06</v>
+      </c>
+      <c r="BB4">
+        <v>11.77</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>10.9</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>84.87</v>
+      </c>
+      <c r="BH4">
+        <v>84.87</v>
+      </c>
+      <c r="BI4">
+        <v>88.83</v>
+      </c>
+      <c r="BJ4">
+        <v>7.7</v>
+      </c>
+      <c r="BK4">
+        <v>15.4</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:63">
       <c r="A5" s="1">
-        <v>330060</v>
+        <v>44178</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5">
         <v>202104</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>2021</v>
       </c>
-      <c r="E5">
-        <v>121289698</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
         <v>1809101472</v>
       </c>
-      <c r="G5" t="s">
-        <v>49</v>
-      </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J5">
+        <v>4884032000</v>
+      </c>
+      <c r="K5">
         <v>78.05151515151515</v>
       </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5">
-        <v>4884032000</v>
+      <c r="L5" t="s">
+        <v>83</v>
       </c>
       <c r="M5">
         <v>2492238</v>
@@ -984,96 +1437,186 @@
         <v>26883</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>5.74</v>
+      </c>
+      <c r="T5">
+        <v>14.42</v>
+      </c>
+      <c r="U5">
+        <v>34.86</v>
+      </c>
+      <c r="V5">
+        <v>20.07</v>
+      </c>
+      <c r="W5">
+        <v>24.9</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>15.89</v>
+      </c>
+      <c r="Z5">
+        <v>10.27</v>
+      </c>
+      <c r="AA5">
+        <v>73.84</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>1.38</v>
       </c>
-      <c r="R5">
+      <c r="AH5">
         <v>51.89</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
         <v>23.12</v>
       </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
         <v>9.82</v>
       </c>
-      <c r="W5">
+      <c r="AM5">
         <v>6.49</v>
       </c>
-      <c r="X5">
+      <c r="AN5">
         <v>7.29</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
         <v>82.17</v>
       </c>
-      <c r="AE5">
+      <c r="AU5">
         <v>15.79</v>
       </c>
-      <c r="AF5">
+      <c r="AV5">
         <v>2.05</v>
       </c>
-      <c r="AG5">
-        <v>0</v>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>42.59</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>11.49</v>
+      </c>
+      <c r="BA5">
+        <v>15.5</v>
+      </c>
+      <c r="BB5">
+        <v>30.42</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>1.38</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>7.73</v>
+      </c>
+      <c r="BG5">
+        <v>59.19</v>
+      </c>
+      <c r="BH5">
+        <v>76.56999999999999</v>
+      </c>
+      <c r="BI5">
+        <v>90.89</v>
+      </c>
+      <c r="BJ5">
+        <v>25</v>
+      </c>
+      <c r="BK5">
+        <v>33.3</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:63">
       <c r="A6" s="1">
-        <v>352049</v>
+        <v>46984</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6">
         <v>202105</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>2021</v>
       </c>
-      <c r="E6">
-        <v>121289698</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
         <v>1809101472</v>
       </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J6">
+        <v>4884032000</v>
+      </c>
+      <c r="K6">
         <v>78.05151515151515</v>
       </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6">
-        <v>4884032000</v>
+      <c r="L6" t="s">
+        <v>83</v>
       </c>
       <c r="M6">
         <v>2173959</v>
@@ -1085,96 +1628,186 @@
         <v>14541</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>3.84</v>
+      </c>
+      <c r="T6">
+        <v>39.48</v>
+      </c>
+      <c r="U6">
+        <v>4.84</v>
+      </c>
+      <c r="V6">
+        <v>27.82</v>
+      </c>
+      <c r="W6">
+        <v>24.02</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>30.61</v>
+      </c>
+      <c r="Z6">
+        <v>35.43</v>
+      </c>
+      <c r="AA6">
+        <v>33.96</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>0.95</v>
       </c>
-      <c r="R6">
+      <c r="AH6">
         <v>9.130000000000001</v>
       </c>
-      <c r="S6">
+      <c r="AI6">
         <v>4.39</v>
       </c>
-      <c r="T6">
+      <c r="AJ6">
         <v>26.56</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
         <v>3.65</v>
       </c>
-      <c r="W6">
+      <c r="AM6">
         <v>31.97</v>
       </c>
-      <c r="X6">
+      <c r="AN6">
         <v>5.55</v>
       </c>
-      <c r="Y6">
+      <c r="AO6">
         <v>17.81</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
         <v>0.71</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
         <v>24.16</v>
       </c>
-      <c r="AD6">
+      <c r="AT6">
         <v>51.03</v>
       </c>
-      <c r="AE6">
+      <c r="AU6">
         <v>6</v>
       </c>
-      <c r="AF6">
+      <c r="AV6">
         <v>18.09</v>
       </c>
-      <c r="AG6">
-        <v>0</v>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>8.94</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>7.28</v>
+      </c>
+      <c r="BA6">
+        <v>43.7</v>
+      </c>
+      <c r="BB6">
+        <v>23.19</v>
+      </c>
+      <c r="BC6">
+        <v>16.88</v>
+      </c>
+      <c r="BD6">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>52.03</v>
+      </c>
+      <c r="BH6">
+        <v>54.52</v>
+      </c>
+      <c r="BI6">
+        <v>70.22</v>
+      </c>
+      <c r="BJ6">
+        <v>26.3</v>
+      </c>
+      <c r="BK6">
+        <v>26.3</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:63">
       <c r="A7" s="1">
-        <v>374097</v>
+        <v>49802</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7">
         <v>202106</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>2021</v>
       </c>
-      <c r="E7">
-        <v>121289698</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
         <v>1809101472</v>
       </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J7">
+        <v>4884032000</v>
+      </c>
+      <c r="K7">
         <v>78.05151515151515</v>
       </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7">
-        <v>4884032000</v>
+      <c r="L7" t="s">
+        <v>83</v>
       </c>
       <c r="M7">
         <v>1634242</v>
@@ -1186,96 +1819,186 @@
         <v>10022</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>97.75</v>
       </c>
       <c r="Q7">
+        <v>2.25</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>28.03</v>
+      </c>
+      <c r="T7">
+        <v>25.66</v>
+      </c>
+      <c r="U7">
+        <v>6.08</v>
+      </c>
+      <c r="V7">
+        <v>23.42</v>
+      </c>
+      <c r="W7">
+        <v>14.56</v>
+      </c>
+      <c r="X7">
+        <v>2.25</v>
+      </c>
+      <c r="Y7">
+        <v>40.72</v>
+      </c>
+      <c r="Z7">
+        <v>18.8</v>
+      </c>
+      <c r="AA7">
+        <v>40.47</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0.47</v>
       </c>
-      <c r="R7">
+      <c r="AH7">
         <v>24.13</v>
       </c>
-      <c r="S7">
+      <c r="AI7">
         <v>22.67</v>
       </c>
-      <c r="T7">
+      <c r="AJ7">
         <v>20.8</v>
       </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
         <v>1.78</v>
       </c>
-      <c r="W7">
+      <c r="AM7">
         <v>10.91</v>
       </c>
-      <c r="X7">
+      <c r="AN7">
         <v>10.98</v>
       </c>
-      <c r="Y7">
+      <c r="AO7">
         <v>8.26</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
         <v>10.2</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
         <v>18.8</v>
       </c>
-      <c r="AD7">
+      <c r="AT7">
         <v>52.51</v>
       </c>
-      <c r="AE7">
+      <c r="AU7">
         <v>5.8</v>
       </c>
-      <c r="AF7">
+      <c r="AV7">
         <v>12.69</v>
       </c>
-      <c r="AG7">
-        <v>0</v>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>13.44</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>16.96</v>
+      </c>
+      <c r="BA7">
+        <v>17.87</v>
+      </c>
+      <c r="BB7">
+        <v>34.14</v>
+      </c>
+      <c r="BC7">
+        <v>17.59</v>
+      </c>
+      <c r="BD7">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="BE7">
+        <v>0</v>
+      </c>
+      <c r="BF7">
+        <v>0.47</v>
+      </c>
+      <c r="BG7">
+        <v>67.34999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>75.09</v>
+      </c>
+      <c r="BI7">
+        <v>91.36</v>
+      </c>
+      <c r="BJ7">
+        <v>38.5</v>
+      </c>
+      <c r="BK7">
+        <v>15.4</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:63">
       <c r="A8" s="1">
-        <v>396229</v>
+        <v>52621</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8">
         <v>202107</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>2021</v>
       </c>
-      <c r="E8">
-        <v>121289698</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
         <v>1809101472</v>
       </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J8">
+        <v>4884032000</v>
+      </c>
+      <c r="K8">
         <v>78.05151515151515</v>
       </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8">
-        <v>4884032000</v>
+      <c r="L8" t="s">
+        <v>83</v>
       </c>
       <c r="M8">
         <v>3038854</v>
@@ -1287,96 +2010,186 @@
         <v>16075</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>8.83</v>
+      </c>
+      <c r="T8">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="U8">
+        <v>26.91</v>
+      </c>
+      <c r="V8">
+        <v>7.85</v>
+      </c>
+      <c r="W8">
+        <v>43.79</v>
+      </c>
+      <c r="X8">
+        <v>4.1</v>
+      </c>
+      <c r="Y8">
+        <v>25.85</v>
+      </c>
+      <c r="Z8">
+        <v>19.82</v>
+      </c>
+      <c r="AA8">
+        <v>54.33</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
         <v>26.84</v>
       </c>
-      <c r="S8">
+      <c r="AI8">
         <v>4.22</v>
       </c>
-      <c r="T8">
+      <c r="AJ8">
         <v>40.19</v>
       </c>
-      <c r="U8">
+      <c r="AK8">
         <v>0.78</v>
       </c>
-      <c r="V8">
+      <c r="AL8">
         <v>3.4</v>
       </c>
-      <c r="W8">
+      <c r="AM8">
         <v>13.93</v>
       </c>
-      <c r="X8">
+      <c r="AN8">
         <v>6.76</v>
       </c>
-      <c r="Y8">
+      <c r="AO8">
         <v>3.89</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
         <v>1.59</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
         <v>26.35</v>
       </c>
-      <c r="AD8">
+      <c r="AT8">
         <v>47.4</v>
       </c>
-      <c r="AE8">
+      <c r="AU8">
         <v>13.62</v>
       </c>
-      <c r="AF8">
+      <c r="AV8">
         <v>11.04</v>
       </c>
-      <c r="AG8">
-        <v>0</v>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>8.69</v>
+      </c>
+      <c r="AY8">
+        <v>20.74</v>
+      </c>
+      <c r="AZ8">
+        <v>5.53</v>
+      </c>
+      <c r="BA8">
+        <v>14.5</v>
+      </c>
+      <c r="BB8">
+        <v>47.33</v>
+      </c>
+      <c r="BC8">
+        <v>3.21</v>
+      </c>
+      <c r="BD8">
+        <v>26.35</v>
+      </c>
+      <c r="BE8">
+        <v>0</v>
+      </c>
+      <c r="BF8">
+        <v>2.85</v>
+      </c>
+      <c r="BG8">
+        <v>31.04</v>
+      </c>
+      <c r="BH8">
+        <v>55.56</v>
+      </c>
+      <c r="BI8">
+        <v>86.87</v>
+      </c>
+      <c r="BJ8">
+        <v>35.7</v>
+      </c>
+      <c r="BK8">
+        <v>17.9</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:63">
       <c r="A9" s="1">
-        <v>418344</v>
+        <v>55446</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9">
         <v>202108</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>2021</v>
       </c>
-      <c r="E9">
-        <v>121289698</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
         <v>1809101472</v>
       </c>
-      <c r="G9" t="s">
-        <v>49</v>
-      </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J9">
+        <v>4884032000</v>
+      </c>
+      <c r="K9">
         <v>78.05151515151515</v>
       </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9">
-        <v>4884032000</v>
+      <c r="L9" t="s">
+        <v>83</v>
       </c>
       <c r="M9">
         <v>3417629</v>
@@ -1388,96 +2201,186 @@
         <v>17090</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>83.11</v>
       </c>
       <c r="Q9">
+        <v>16.89</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>12.09</v>
+      </c>
+      <c r="T9">
+        <v>15.83</v>
+      </c>
+      <c r="U9">
+        <v>23.59</v>
+      </c>
+      <c r="V9">
+        <v>27.11</v>
+      </c>
+      <c r="W9">
+        <v>4.49</v>
+      </c>
+      <c r="X9">
+        <v>16.89</v>
+      </c>
+      <c r="Y9">
+        <v>37.16</v>
+      </c>
+      <c r="Z9">
+        <v>34.48</v>
+      </c>
+      <c r="AA9">
+        <v>28.36</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>3.38</v>
       </c>
-      <c r="R9">
+      <c r="AH9">
         <v>10.7</v>
       </c>
-      <c r="S9">
+      <c r="AI9">
         <v>21.56</v>
       </c>
-      <c r="T9">
+      <c r="AJ9">
         <v>22.07</v>
       </c>
-      <c r="U9">
+      <c r="AK9">
         <v>0.23</v>
       </c>
-      <c r="V9">
+      <c r="AL9">
         <v>4.82</v>
       </c>
-      <c r="W9">
+      <c r="AM9">
         <v>11.84</v>
       </c>
-      <c r="X9">
+      <c r="AN9">
         <v>6.15</v>
       </c>
-      <c r="Y9">
+      <c r="AO9">
         <v>19.26</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
         <v>7.97</v>
       </c>
-      <c r="AD9">
+      <c r="AT9">
         <v>63.3</v>
       </c>
-      <c r="AE9">
+      <c r="AU9">
         <v>14.72</v>
       </c>
-      <c r="AF9">
+      <c r="AV9">
         <v>12.81</v>
       </c>
-      <c r="AG9">
+      <c r="AW9">
         <v>1.2</v>
       </c>
+      <c r="AX9">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="AY9">
+        <v>7.5</v>
+      </c>
+      <c r="AZ9">
+        <v>6.53</v>
+      </c>
+      <c r="BA9">
+        <v>42.4</v>
+      </c>
+      <c r="BB9">
+        <v>24.14</v>
+      </c>
+      <c r="BC9">
+        <v>11.22</v>
+      </c>
+      <c r="BD9">
+        <v>3.24</v>
+      </c>
+      <c r="BE9">
+        <v>1.5</v>
+      </c>
+      <c r="BF9">
+        <v>0.23</v>
+      </c>
+      <c r="BG9">
+        <v>41.01</v>
+      </c>
+      <c r="BH9">
+        <v>73.95</v>
+      </c>
+      <c r="BI9">
+        <v>75.06</v>
+      </c>
+      <c r="BJ9">
+        <v>24.1</v>
+      </c>
+      <c r="BK9">
+        <v>20.7</v>
+      </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:63">
       <c r="A10" s="1">
-        <v>440491</v>
+        <v>58266</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10">
         <v>202109</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>2021</v>
       </c>
-      <c r="E10">
-        <v>121289698</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
         <v>1809101472</v>
       </c>
-      <c r="G10" t="s">
-        <v>49</v>
-      </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J10">
+        <v>4884032000</v>
+      </c>
+      <c r="K10">
         <v>78.05151515151515</v>
       </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10">
-        <v>4884032000</v>
+      <c r="L10" t="s">
+        <v>83</v>
       </c>
       <c r="M10">
         <v>4631869</v>
@@ -1489,96 +2392,186 @@
         <v>27753</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="Q10">
+        <v>4.74</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>28.13</v>
+      </c>
+      <c r="T10">
+        <v>31.16</v>
+      </c>
+      <c r="U10">
+        <v>14.75</v>
+      </c>
+      <c r="V10">
+        <v>17.6</v>
+      </c>
+      <c r="W10">
+        <v>3.63</v>
+      </c>
+      <c r="X10">
+        <v>4.74</v>
+      </c>
+      <c r="Y10">
+        <v>24.23</v>
+      </c>
+      <c r="Z10">
+        <v>49.93</v>
+      </c>
+      <c r="AA10">
+        <v>25.84</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
         <v>0.83</v>
       </c>
-      <c r="R10">
+      <c r="AH10">
         <v>15.43</v>
       </c>
-      <c r="S10">
+      <c r="AI10">
         <v>23.26</v>
       </c>
-      <c r="T10">
+      <c r="AJ10">
         <v>27.06</v>
       </c>
-      <c r="U10">
+      <c r="AK10">
         <v>4.84</v>
       </c>
-      <c r="V10">
+      <c r="AL10">
         <v>1.08</v>
       </c>
-      <c r="W10">
+      <c r="AM10">
         <v>2.43</v>
       </c>
-      <c r="X10">
+      <c r="AN10">
         <v>20.49</v>
       </c>
-      <c r="Y10">
+      <c r="AO10">
         <v>4.57</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
         <v>5.48</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
         <v>11.5</v>
       </c>
-      <c r="AD10">
+      <c r="AT10">
         <v>44.16</v>
       </c>
-      <c r="AE10">
+      <c r="AU10">
         <v>36.49</v>
       </c>
-      <c r="AF10">
+      <c r="AV10">
         <v>1.28</v>
       </c>
-      <c r="AG10">
+      <c r="AW10">
         <v>1.08</v>
       </c>
+      <c r="AX10">
+        <v>7.9</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>4.92</v>
+      </c>
+      <c r="BA10">
+        <v>21.63</v>
+      </c>
+      <c r="BB10">
+        <v>41.11</v>
+      </c>
+      <c r="BC10">
+        <v>24.43</v>
+      </c>
+      <c r="BD10">
+        <v>2.07</v>
+      </c>
+      <c r="BE10">
+        <v>0</v>
+      </c>
+      <c r="BF10">
+        <v>5.01</v>
+      </c>
+      <c r="BG10">
+        <v>69.13</v>
+      </c>
+      <c r="BH10">
+        <v>88.04000000000001</v>
+      </c>
+      <c r="BI10">
+        <v>92.73999999999999</v>
+      </c>
+      <c r="BJ10">
+        <v>25.9</v>
+      </c>
+      <c r="BK10">
+        <v>14.8</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:63">
       <c r="A11" s="1">
-        <v>462685</v>
+        <v>61098</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11">
         <v>202110</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>2021</v>
       </c>
-      <c r="E11">
-        <v>121289698</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
         <v>1809101472</v>
       </c>
-      <c r="G11" t="s">
-        <v>49</v>
-      </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J11">
+        <v>4884032000</v>
+      </c>
+      <c r="K11">
         <v>78.05151515151515</v>
       </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11">
-        <v>4884032000</v>
+      <c r="L11" t="s">
+        <v>83</v>
       </c>
       <c r="M11">
         <v>3950135</v>
@@ -1590,96 +2583,186 @@
         <v>22715</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>17.29</v>
+      </c>
+      <c r="T11">
+        <v>5.22</v>
+      </c>
+      <c r="U11">
+        <v>19.56</v>
+      </c>
+      <c r="V11">
+        <v>40.14</v>
+      </c>
+      <c r="W11">
+        <v>17.79</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>11.94</v>
+      </c>
+      <c r="Z11">
+        <v>58.86</v>
+      </c>
+      <c r="AA11">
+        <v>29.2</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>6.22</v>
       </c>
-      <c r="R11">
+      <c r="AH11">
         <v>13.58</v>
       </c>
-      <c r="S11">
+      <c r="AI11">
         <v>7.78</v>
       </c>
-      <c r="T11">
+      <c r="AJ11">
         <v>20.64</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
         <v>33.78</v>
       </c>
-      <c r="W11">
+      <c r="AM11">
         <v>1.4</v>
       </c>
-      <c r="X11">
+      <c r="AN11">
         <v>16.6</v>
       </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
         <v>0.47</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
         <v>15.85</v>
       </c>
-      <c r="AD11">
+      <c r="AT11">
         <v>23.62</v>
       </c>
-      <c r="AE11">
+      <c r="AU11">
         <v>27.5</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>32.57</v>
       </c>
+      <c r="AX11">
+        <v>1.22</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>41.91</v>
+      </c>
+      <c r="BA11">
+        <v>24.24</v>
+      </c>
+      <c r="BB11">
+        <v>22.32</v>
+      </c>
+      <c r="BC11">
+        <v>10.31</v>
+      </c>
+      <c r="BD11">
+        <v>5.66</v>
+      </c>
+      <c r="BE11">
+        <v>0</v>
+      </c>
+      <c r="BF11">
+        <v>1.22</v>
+      </c>
+      <c r="BG11">
+        <v>23.68</v>
+      </c>
+      <c r="BH11">
+        <v>54.23</v>
+      </c>
+      <c r="BI11">
+        <v>55.22</v>
+      </c>
+      <c r="BJ11">
+        <v>36</v>
+      </c>
+      <c r="BK11">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:63">
       <c r="A12" s="1">
-        <v>484951</v>
+        <v>63930</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12">
+        <v>72</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12">
         <v>202111</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>2021</v>
       </c>
-      <c r="E12">
-        <v>121289698</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
         <v>1809101472</v>
       </c>
-      <c r="G12" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I12" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J12">
+        <v>4884032000</v>
+      </c>
+      <c r="K12">
         <v>78.05151515151515</v>
       </c>
-      <c r="K12" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12">
-        <v>4884032000</v>
+      <c r="L12" t="s">
+        <v>83</v>
       </c>
       <c r="M12">
         <v>3894527</v>
@@ -1691,96 +2774,186 @@
         <v>18288</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>45.21</v>
+      </c>
+      <c r="T12">
+        <v>9.24</v>
+      </c>
+      <c r="U12">
+        <v>8.9</v>
+      </c>
+      <c r="V12">
+        <v>12.65</v>
+      </c>
+      <c r="W12">
+        <v>24.01</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>22.37</v>
+      </c>
+      <c r="Z12">
+        <v>26.89</v>
+      </c>
+      <c r="AA12">
+        <v>50.75</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
         <v>3.8</v>
       </c>
-      <c r="R12">
+      <c r="AH12">
         <v>11.24</v>
       </c>
-      <c r="S12">
+      <c r="AI12">
         <v>29.12</v>
       </c>
-      <c r="T12">
+      <c r="AJ12">
         <v>33.51</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
         <v>13.49</v>
       </c>
-      <c r="X12">
+      <c r="AN12">
         <v>7.9</v>
       </c>
-      <c r="Y12">
+      <c r="AO12">
         <v>0.9399999999999999</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
         <v>6.68</v>
       </c>
-      <c r="AD12">
+      <c r="AT12">
         <v>79.38</v>
       </c>
-      <c r="AE12">
+      <c r="AU12">
         <v>9.69</v>
       </c>
-      <c r="AF12">
+      <c r="AV12">
         <v>3.29</v>
       </c>
-      <c r="AG12">
+      <c r="AW12">
         <v>0.9399999999999999</v>
       </c>
+      <c r="AX12">
+        <v>4.1</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>7.01</v>
+      </c>
+      <c r="BA12">
+        <v>39.34</v>
+      </c>
+      <c r="BB12">
+        <v>43.81</v>
+      </c>
+      <c r="BC12">
+        <v>5.73</v>
+      </c>
+      <c r="BD12">
+        <v>10.49</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>43.73</v>
+      </c>
+      <c r="BH12">
+        <v>64.31</v>
+      </c>
+      <c r="BI12">
+        <v>84.31999999999999</v>
+      </c>
+      <c r="BJ12">
+        <v>48.1</v>
+      </c>
+      <c r="BK12">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:63">
       <c r="A13" s="1">
-        <v>507249</v>
+        <v>66762</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13">
+        <v>73</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13">
         <v>202112</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>2021</v>
       </c>
-      <c r="E13">
-        <v>121289698</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
         <v>1809101472</v>
       </c>
-      <c r="G13" t="s">
-        <v>49</v>
-      </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I13" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J13">
+        <v>4884032000</v>
+      </c>
+      <c r="K13">
         <v>78.05151515151515</v>
       </c>
-      <c r="K13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13">
-        <v>4884032000</v>
+      <c r="L13" t="s">
+        <v>83</v>
       </c>
       <c r="M13">
         <v>2931965</v>
@@ -1792,96 +2965,186 @@
         <v>12621</v>
       </c>
       <c r="P13">
+        <v>100</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>44.54</v>
+      </c>
+      <c r="T13">
+        <v>10.05</v>
+      </c>
+      <c r="U13">
+        <v>16.73</v>
+      </c>
+      <c r="V13">
+        <v>5.89</v>
+      </c>
+      <c r="W13">
+        <v>22.79</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>22.2</v>
+      </c>
+      <c r="Z13">
+        <v>42.31</v>
+      </c>
+      <c r="AA13">
+        <v>35.48</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
         <v>2.42</v>
       </c>
-      <c r="Q13">
+      <c r="AG13">
         <v>1.98</v>
       </c>
-      <c r="R13">
+      <c r="AH13">
         <v>10.75</v>
       </c>
-      <c r="S13">
+      <c r="AI13">
         <v>24.6</v>
       </c>
-      <c r="T13">
+      <c r="AJ13">
         <v>21.33</v>
       </c>
-      <c r="U13">
+      <c r="AK13">
         <v>1.74</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
         <v>10.5</v>
       </c>
-      <c r="X13">
+      <c r="AN13">
         <v>10.93</v>
       </c>
-      <c r="Y13">
+      <c r="AO13">
         <v>15.75</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
         <v>3.72</v>
       </c>
-      <c r="AD13">
+      <c r="AT13">
         <v>81.64</v>
       </c>
-      <c r="AE13">
+      <c r="AU13">
         <v>14.64</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>4.28</v>
+      </c>
+      <c r="BA13">
+        <v>24.24</v>
+      </c>
+      <c r="BB13">
+        <v>47.93</v>
+      </c>
+      <c r="BC13">
+        <v>13.75</v>
+      </c>
+      <c r="BD13">
+        <v>5.05</v>
+      </c>
+      <c r="BE13">
+        <v>4.16</v>
+      </c>
+      <c r="BF13">
+        <v>0</v>
+      </c>
+      <c r="BG13">
+        <v>58.45</v>
+      </c>
+      <c r="BH13">
+        <v>81.03</v>
+      </c>
+      <c r="BI13">
+        <v>85.98</v>
+      </c>
+      <c r="BJ13">
+        <v>37.5</v>
+      </c>
+      <c r="BK13">
+        <v>37.5</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:63">
       <c r="A14" s="1">
-        <v>529564</v>
+        <v>69596</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14">
         <v>202201</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>2022</v>
       </c>
-      <c r="E14">
-        <v>121289698</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
         <v>1809101472</v>
       </c>
-      <c r="G14" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J14">
+        <v>4884032000</v>
+      </c>
+      <c r="K14">
         <v>78.05151515151515</v>
       </c>
-      <c r="K14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14">
-        <v>4884032000</v>
+      <c r="L14" t="s">
+        <v>83</v>
       </c>
       <c r="M14">
         <v>2185039</v>
@@ -1893,7 +3156,7 @@
         <v>13297</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1902,87 +3165,177 @@
         <v>0</v>
       </c>
       <c r="S14">
+        <v>10.6</v>
+      </c>
+      <c r="T14">
+        <v>17.37</v>
+      </c>
+      <c r="U14">
+        <v>9.24</v>
+      </c>
+      <c r="V14">
+        <v>28.87</v>
+      </c>
+      <c r="W14">
+        <v>33.92</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>19.38</v>
+      </c>
+      <c r="Z14">
+        <v>37.97</v>
+      </c>
+      <c r="AA14">
+        <v>42.65</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
         <v>60.35</v>
       </c>
-      <c r="T14">
+      <c r="AJ14">
         <v>25.79</v>
       </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
         <v>5.22</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
         <v>7.55</v>
       </c>
-      <c r="Y14">
+      <c r="AO14">
         <v>1.09</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
         <v>3.52</v>
       </c>
-      <c r="AD14">
+      <c r="AT14">
         <v>36.99</v>
       </c>
-      <c r="AE14">
+      <c r="AU14">
         <v>16.65</v>
       </c>
-      <c r="AF14">
+      <c r="AV14">
         <v>32.85</v>
       </c>
-      <c r="AG14">
+      <c r="AW14">
         <v>10</v>
       </c>
+      <c r="AX14">
+        <v>10.62</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>2.46</v>
+      </c>
+      <c r="BA14">
+        <v>40.79</v>
+      </c>
+      <c r="BB14">
+        <v>41.54</v>
+      </c>
+      <c r="BC14">
+        <v>4.6</v>
+      </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
+      <c r="BF14">
+        <v>2.77</v>
+      </c>
+      <c r="BG14">
+        <v>29.08</v>
+      </c>
+      <c r="BH14">
+        <v>49.24</v>
+      </c>
+      <c r="BI14">
+        <v>49.63</v>
+      </c>
+      <c r="BJ14">
+        <v>20</v>
+      </c>
+      <c r="BK14">
+        <v>33.3</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:63">
       <c r="A15" s="1">
-        <v>551827</v>
+        <v>72428</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15">
         <v>202202</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>2022</v>
       </c>
-      <c r="E15">
-        <v>121289698</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
         <v>1809101472</v>
       </c>
-      <c r="G15" t="s">
-        <v>49</v>
-      </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J15">
+        <v>4884032000</v>
+      </c>
+      <c r="K15">
         <v>78.05151515151515</v>
       </c>
-      <c r="K15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15">
-        <v>4884032000</v>
+      <c r="L15" t="s">
+        <v>83</v>
       </c>
       <c r="M15">
         <v>2276329</v>
@@ -1994,96 +3347,186 @@
         <v>17917</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="T15">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="U15">
+        <v>23.42</v>
+      </c>
+      <c r="V15">
+        <v>41.98</v>
+      </c>
+      <c r="W15">
+        <v>17.74</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>45.49</v>
+      </c>
+      <c r="AA15">
+        <v>50.51</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
         <v>9.58</v>
       </c>
-      <c r="S15">
+      <c r="AI15">
         <v>18.6</v>
       </c>
-      <c r="T15">
+      <c r="AJ15">
         <v>41.3</v>
       </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
         <v>1.67</v>
       </c>
-      <c r="W15">
+      <c r="AM15">
         <v>0.7</v>
       </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
         <v>28.14</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
         <v>77.81</v>
       </c>
-      <c r="AE15">
+      <c r="AU15">
         <v>22.19</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>6.79</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
+        <v>3.37</v>
+      </c>
+      <c r="BA15">
+        <v>20.35</v>
+      </c>
+      <c r="BB15">
+        <v>69.48999999999999</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
+      <c r="BG15">
+        <v>70.67</v>
+      </c>
+      <c r="BH15">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="BI15">
+        <v>80.26000000000001</v>
+      </c>
+      <c r="BJ15">
+        <v>42.9</v>
+      </c>
+      <c r="BK15">
+        <v>28.6</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:63">
       <c r="A16" s="1">
-        <v>574133</v>
+        <v>75275</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16">
         <v>202203</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>2022</v>
       </c>
-      <c r="E16">
-        <v>121289698</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
         <v>1809101472</v>
       </c>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I16" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J16">
+        <v>4884032000</v>
+      </c>
+      <c r="K16">
         <v>78.05151515151515</v>
       </c>
-      <c r="K16" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16">
-        <v>4884032000</v>
+      <c r="L16" t="s">
+        <v>83</v>
       </c>
       <c r="M16">
         <v>3189761</v>
@@ -2095,96 +3538,186 @@
         <v>11866</v>
       </c>
       <c r="P16">
+        <v>100</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>25.42</v>
+      </c>
+      <c r="T16">
+        <v>7.82</v>
+      </c>
+      <c r="U16">
+        <v>18.14</v>
+      </c>
+      <c r="V16">
+        <v>25.94</v>
+      </c>
+      <c r="W16">
+        <v>22.69</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>18.09</v>
+      </c>
+      <c r="Z16">
+        <v>53.41</v>
+      </c>
+      <c r="AA16">
+        <v>28.5</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
         <v>7.84</v>
       </c>
-      <c r="Q16">
+      <c r="AG16">
         <v>1.82</v>
       </c>
-      <c r="R16">
+      <c r="AH16">
         <v>2.56</v>
       </c>
-      <c r="S16">
+      <c r="AI16">
         <v>11.65</v>
       </c>
-      <c r="T16">
+      <c r="AJ16">
         <v>10.72</v>
       </c>
-      <c r="U16">
+      <c r="AK16">
         <v>3.15</v>
       </c>
-      <c r="V16">
+      <c r="AL16">
         <v>2.07</v>
       </c>
-      <c r="W16">
+      <c r="AM16">
         <v>9.789999999999999</v>
       </c>
-      <c r="X16">
+      <c r="AN16">
         <v>24.44</v>
       </c>
-      <c r="Y16">
+      <c r="AO16">
         <v>25.96</v>
       </c>
-      <c r="Z16">
+      <c r="AP16">
         <v>1.28</v>
       </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
         <v>7.43</v>
       </c>
-      <c r="AD16">
+      <c r="AT16">
         <v>74.92</v>
       </c>
-      <c r="AE16">
+      <c r="AU16">
         <v>7.42</v>
       </c>
-      <c r="AF16">
+      <c r="AV16">
         <v>5.38</v>
       </c>
-      <c r="AG16">
+      <c r="AW16">
         <v>3.57</v>
       </c>
+      <c r="AX16">
+        <v>14.16</v>
+      </c>
+      <c r="AY16">
+        <v>0.84</v>
+      </c>
+      <c r="AZ16">
+        <v>3.56</v>
+      </c>
+      <c r="BA16">
+        <v>20.55</v>
+      </c>
+      <c r="BB16">
+        <v>50.18</v>
+      </c>
+      <c r="BC16">
+        <v>10.72</v>
+      </c>
+      <c r="BD16">
+        <v>1.69</v>
+      </c>
+      <c r="BE16">
+        <v>5.66</v>
+      </c>
+      <c r="BF16">
+        <v>5.33</v>
+      </c>
+      <c r="BG16">
+        <v>38.87</v>
+      </c>
+      <c r="BH16">
+        <v>58.39</v>
+      </c>
+      <c r="BI16">
+        <v>61.87</v>
+      </c>
+      <c r="BJ16">
+        <v>21.2</v>
+      </c>
+      <c r="BK16">
+        <v>24.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:63">
       <c r="A17" s="1">
-        <v>596521</v>
+        <v>78120</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17">
+        <v>77</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17">
         <v>202204</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2022</v>
       </c>
-      <c r="E17">
-        <v>121289698</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
         <v>1809101472</v>
       </c>
-      <c r="G17" t="s">
-        <v>49</v>
-      </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J17">
+        <v>4884032000</v>
+      </c>
+      <c r="K17">
         <v>78.05151515151515</v>
       </c>
-      <c r="K17" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17">
-        <v>4884032000</v>
+      <c r="L17" t="s">
+        <v>83</v>
       </c>
       <c r="M17">
         <v>3900057</v>
@@ -2196,96 +3729,186 @@
         <v>17472</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>22.93</v>
+      </c>
+      <c r="T17">
+        <v>11.47</v>
+      </c>
+      <c r="U17">
+        <v>15.96</v>
+      </c>
+      <c r="V17">
+        <v>27.59</v>
+      </c>
+      <c r="W17">
+        <v>22.04</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>30.33</v>
+      </c>
+      <c r="Z17">
+        <v>35.35</v>
+      </c>
+      <c r="AA17">
+        <v>34.31</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
         <v>0.72</v>
       </c>
-      <c r="R17">
+      <c r="AH17">
         <v>7.77</v>
       </c>
-      <c r="S17">
+      <c r="AI17">
         <v>26.05</v>
       </c>
-      <c r="T17">
+      <c r="AJ17">
         <v>28.54</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
         <v>1.08</v>
       </c>
-      <c r="W17">
+      <c r="AM17">
         <v>14.2</v>
       </c>
-      <c r="X17">
+      <c r="AN17">
         <v>6.03</v>
       </c>
-      <c r="Y17">
+      <c r="AO17">
         <v>15.61</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
         <v>11.49</v>
       </c>
-      <c r="AD17">
+      <c r="AT17">
         <v>52.43</v>
       </c>
-      <c r="AE17">
+      <c r="AU17">
         <v>13.91</v>
       </c>
-      <c r="AF17">
+      <c r="AV17">
         <v>8.779999999999999</v>
       </c>
-      <c r="AG17">
+      <c r="AW17">
         <v>13.39</v>
       </c>
+      <c r="AX17">
+        <v>7.95</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>8.94</v>
+      </c>
+      <c r="BA17">
+        <v>42.13</v>
+      </c>
+      <c r="BB17">
+        <v>21</v>
+      </c>
+      <c r="BC17">
+        <v>19.98</v>
+      </c>
+      <c r="BD17">
+        <v>8.35</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>49</v>
+      </c>
+      <c r="BH17">
+        <v>54.72</v>
+      </c>
+      <c r="BI17">
+        <v>70.2</v>
+      </c>
+      <c r="BJ17">
+        <v>51.6</v>
+      </c>
+      <c r="BK17">
+        <v>25.8</v>
+      </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:63">
       <c r="A18" s="1">
-        <v>618908</v>
+        <v>80973</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18">
         <v>202205</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>2022</v>
       </c>
-      <c r="E18">
-        <v>121289698</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
         <v>1809101472</v>
       </c>
-      <c r="G18" t="s">
-        <v>49</v>
-      </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="J18">
+        <v>4884032000</v>
+      </c>
+      <c r="K18">
         <v>78.05151515151515</v>
       </c>
-      <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18">
-        <v>4884032000</v>
+      <c r="L18" t="s">
+        <v>83</v>
       </c>
       <c r="M18">
         <v>8002544</v>
@@ -2297,58 +3920,148 @@
         <v>44694</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>26.37</v>
+      </c>
+      <c r="T18">
+        <v>52.27</v>
+      </c>
+      <c r="U18">
+        <v>5.29</v>
+      </c>
+      <c r="V18">
+        <v>6.39</v>
+      </c>
+      <c r="W18">
+        <v>9.68</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>15.71</v>
+      </c>
+      <c r="Z18">
+        <v>13.59</v>
+      </c>
+      <c r="AA18">
+        <v>70.7</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>7.61</v>
       </c>
-      <c r="R18">
+      <c r="AH18">
         <v>1.75</v>
       </c>
-      <c r="S18">
+      <c r="AI18">
         <v>9.19</v>
       </c>
-      <c r="T18">
+      <c r="AJ18">
         <v>21.63</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>8.19</v>
       </c>
-      <c r="X18">
+      <c r="AN18">
         <v>46.97</v>
       </c>
-      <c r="Y18">
+      <c r="AO18">
         <v>4.67</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>2.83</v>
       </c>
-      <c r="AD18">
+      <c r="AT18">
         <v>82.31999999999999</v>
       </c>
-      <c r="AE18">
+      <c r="AU18">
         <v>13.19</v>
       </c>
-      <c r="AF18">
+      <c r="AV18">
         <v>0.59</v>
       </c>
-      <c r="AG18">
+      <c r="AW18">
         <v>1.07</v>
+      </c>
+      <c r="AX18">
+        <v>46.26</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>2.08</v>
+      </c>
+      <c r="BA18">
+        <v>19.75</v>
+      </c>
+      <c r="BB18">
+        <v>19.69</v>
+      </c>
+      <c r="BC18">
+        <v>12.23</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>77.59</v>
+      </c>
+      <c r="BH18">
+        <v>80.95999999999999</v>
+      </c>
+      <c r="BI18">
+        <v>85.48999999999999</v>
+      </c>
+      <c r="BJ18">
+        <v>61.5</v>
+      </c>
+      <c r="BK18">
+        <v>19.2</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4884032000.xlsx
+++ b/시장분석용_정보/시장분석용_4884032000.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="84">
-  <si>
-    <t>중복체크</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
   <si>
     <t>sim_cd</t>
   </si>
@@ -158,99 +155,6 @@
   </si>
   <si>
     <t>IC_1099_RT</t>
-  </si>
-  <si>
-    <t>LIFE_01_RT</t>
-  </si>
-  <si>
-    <t>LIFE_02_RT</t>
-  </si>
-  <si>
-    <t>LIFE_03_RT</t>
-  </si>
-  <si>
-    <t>LIFE_04_RT</t>
-  </si>
-  <si>
-    <t>LIFE_05_RT</t>
-  </si>
-  <si>
-    <t>LIFE_06_RT</t>
-  </si>
-  <si>
-    <t>FTJB_HUWF_RT</t>
-  </si>
-  <si>
-    <t>STUD_RT</t>
-  </si>
-  <si>
-    <t>SCTY_EAR_H_RT</t>
-  </si>
-  <si>
-    <t>GDS_01_RT</t>
-  </si>
-  <si>
-    <t>GDS_02_RT</t>
-  </si>
-  <si>
-    <t>GDS_03_RT</t>
-  </si>
-  <si>
-    <t>REVISIT_RT</t>
-  </si>
-  <si>
-    <t>FREQ_RT</t>
-  </si>
-  <si>
-    <t>1809101472 202101</t>
-  </si>
-  <si>
-    <t>1809101472 202102</t>
-  </si>
-  <si>
-    <t>1809101472 202103</t>
-  </si>
-  <si>
-    <t>1809101472 202104</t>
-  </si>
-  <si>
-    <t>1809101472 202105</t>
-  </si>
-  <si>
-    <t>1809101472 202106</t>
-  </si>
-  <si>
-    <t>1809101472 202107</t>
-  </si>
-  <si>
-    <t>1809101472 202108</t>
-  </si>
-  <si>
-    <t>1809101472 202109</t>
-  </si>
-  <si>
-    <t>1809101472 202110</t>
-  </si>
-  <si>
-    <t>1809101472 202111</t>
-  </si>
-  <si>
-    <t>1809101472 202112</t>
-  </si>
-  <si>
-    <t>1809101472 202201</t>
-  </si>
-  <si>
-    <t>1809101472 202202</t>
-  </si>
-  <si>
-    <t>1809101472 202203</t>
-  </si>
-  <si>
-    <t>1809101472 202204</t>
-  </si>
-  <si>
-    <t>1809101472 202205</t>
   </si>
   <si>
     <t>JDQ4MTYyMiM4MSMkMiMkNCMkMDAkNDgxOTYxIzIxIyQxIyQxIyQ5OSQyNjE4MzIjNDEjJDEjJDgjJDgz</t>
@@ -623,13 +527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -771,366 +675,276 @@
       <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:48">
       <c r="A2" s="1">
         <v>35785</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>202101</v>
       </c>
       <c r="E2">
-        <v>202101</v>
+        <v>2021</v>
       </c>
       <c r="F2">
-        <v>2021</v>
-      </c>
-      <c r="G2">
         <v>1809101472</v>
       </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
       <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>4884032000</v>
       </c>
       <c r="J2">
-        <v>4884032000</v>
-      </c>
-      <c r="K2">
         <v>78.05151515151515</v>
       </c>
-      <c r="L2" t="s">
-        <v>83</v>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2">
+        <v>271530</v>
       </c>
       <c r="M2">
-        <v>271530</v>
+        <v>25</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>10700</v>
       </c>
       <c r="O2">
-        <v>10700</v>
+        <v>100</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="S2">
-        <v>68.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>22.43</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>12.52</v>
+      </c>
+      <c r="Y2">
+        <v>78.5</v>
+      </c>
+      <c r="Z2">
         <v>8.970000000000001</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>22.43</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>78.5</v>
+      </c>
+      <c r="AI2">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="AJ2">
         <v>12.52</v>
       </c>
-      <c r="Z2">
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>21.5</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
         <v>78.5</v>
       </c>
-      <c r="AA2">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>78.5</v>
-      </c>
-      <c r="AJ2">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AK2">
-        <v>12.52</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>21.5</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
       <c r="AV2">
-        <v>78.5</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>12.52</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>78.5</v>
-      </c>
-      <c r="BC2">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>12.52</v>
-      </c>
-      <c r="BG2">
-        <v>65.05</v>
-      </c>
-      <c r="BH2">
-        <v>65.05</v>
-      </c>
-      <c r="BI2">
-        <v>65.05</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:48">
       <c r="A3" s="1">
         <v>38580</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>202102</v>
+      </c>
+      <c r="E3">
+        <v>2021</v>
+      </c>
+      <c r="F3">
+        <v>1809101472</v>
+      </c>
+      <c r="G3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>4884032000</v>
+      </c>
+      <c r="J3">
+        <v>78.05151515151515</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3">
+        <v>653619</v>
+      </c>
+      <c r="M3">
         <v>63</v>
       </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3">
-        <v>202102</v>
-      </c>
-      <c r="F3">
-        <v>2021</v>
-      </c>
-      <c r="G3">
-        <v>1809101472</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3">
-        <v>4884032000</v>
-      </c>
-      <c r="K3">
-        <v>78.05151515151515</v>
-      </c>
-      <c r="L3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M3">
-        <v>653619</v>
-      </c>
       <c r="N3">
-        <v>63</v>
+        <v>10550</v>
       </c>
       <c r="O3">
-        <v>10550</v>
+        <v>100</v>
       </c>
       <c r="P3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="S3">
+        <v>19.59</v>
+      </c>
+      <c r="T3">
+        <v>41.94</v>
+      </c>
+      <c r="U3">
+        <v>6.87</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>26.15</v>
+      </c>
+      <c r="Y3">
+        <v>11.77</v>
+      </c>
+      <c r="Z3">
+        <v>62.09</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>6.24</v>
+      </c>
+      <c r="AH3">
         <v>31.6</v>
       </c>
-      <c r="T3">
-        <v>19.59</v>
-      </c>
-      <c r="U3">
-        <v>41.94</v>
-      </c>
-      <c r="V3">
-        <v>6.87</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>26.15</v>
-      </c>
-      <c r="Z3">
-        <v>11.77</v>
-      </c>
-      <c r="AA3">
-        <v>62.09</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>6.24</v>
-      </c>
       <c r="AI3">
-        <v>31.6</v>
+        <v>40.92</v>
       </c>
       <c r="AJ3">
-        <v>40.92</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AK3">
-        <v>8.289999999999999</v>
+        <v>5.85</v>
       </c>
       <c r="AL3">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>7.11</v>
       </c>
       <c r="AO3">
-        <v>7.11</v>
+        <v>0</v>
       </c>
       <c r="AP3">
         <v>0</v>
@@ -1139,147 +953,102 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>22.12</v>
       </c>
       <c r="AS3">
-        <v>22.12</v>
+        <v>65.8</v>
       </c>
       <c r="AT3">
-        <v>65.8</v>
+        <v>12.09</v>
       </c>
       <c r="AU3">
-        <v>12.09</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <v>0</v>
       </c>
-      <c r="AW3">
-        <v>0</v>
-      </c>
-      <c r="AX3">
-        <v>14.53</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>5.85</v>
-      </c>
-      <c r="BA3">
-        <v>31.6</v>
-      </c>
-      <c r="BB3">
-        <v>40.13</v>
-      </c>
-      <c r="BC3">
-        <v>7.9</v>
-      </c>
-      <c r="BD3">
-        <v>5.92</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="BG3">
-        <v>57.11</v>
-      </c>
-      <c r="BH3">
-        <v>71.09</v>
-      </c>
-      <c r="BI3">
-        <v>76.94</v>
-      </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
-        <v>9.1</v>
-      </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:48">
       <c r="A4" s="1">
         <v>41373</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D4">
+        <v>202103</v>
       </c>
       <c r="E4">
-        <v>202103</v>
+        <v>2021</v>
       </c>
       <c r="F4">
-        <v>2021</v>
-      </c>
-      <c r="G4">
         <v>1809101472</v>
       </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
       <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>4884032000</v>
       </c>
       <c r="J4">
-        <v>4884032000</v>
-      </c>
-      <c r="K4">
         <v>78.05151515151515</v>
       </c>
-      <c r="L4" t="s">
-        <v>83</v>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4">
+        <v>937111</v>
       </c>
       <c r="M4">
-        <v>937111</v>
+        <v>77</v>
       </c>
       <c r="N4">
-        <v>77</v>
+        <v>12293</v>
       </c>
       <c r="O4">
-        <v>12293</v>
+        <v>100</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>18.87</v>
       </c>
       <c r="S4">
-        <v>18.87</v>
+        <v>14.8</v>
       </c>
       <c r="T4">
-        <v>14.8</v>
+        <v>5.21</v>
       </c>
       <c r="U4">
-        <v>5.21</v>
+        <v>31.07</v>
       </c>
       <c r="V4">
-        <v>31.07</v>
+        <v>30.04</v>
       </c>
       <c r="W4">
-        <v>30.04</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>11.06</v>
       </c>
       <c r="Y4">
-        <v>11.06</v>
+        <v>19.9</v>
       </c>
       <c r="Z4">
-        <v>19.9</v>
+        <v>69.03</v>
       </c>
       <c r="AA4">
-        <v>69.03</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -1294,34 +1063,34 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="AG4">
-        <v>18.98</v>
+        <v>20.77</v>
       </c>
       <c r="AH4">
-        <v>20.77</v>
+        <v>12.85</v>
       </c>
       <c r="AI4">
-        <v>12.85</v>
+        <v>2.55</v>
       </c>
       <c r="AJ4">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AK4">
         <v>0</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>6.34</v>
       </c>
       <c r="AM4">
-        <v>6.34</v>
+        <v>11.33</v>
       </c>
       <c r="AN4">
-        <v>11.33</v>
+        <v>27.17</v>
       </c>
       <c r="AO4">
-        <v>27.17</v>
+        <v>0</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -1330,147 +1099,102 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>14.26</v>
       </c>
       <c r="AS4">
-        <v>14.26</v>
+        <v>81.78</v>
       </c>
       <c r="AT4">
-        <v>81.78</v>
+        <v>3.96</v>
       </c>
       <c r="AU4">
-        <v>3.96</v>
+        <v>0</v>
       </c>
       <c r="AV4">
         <v>0</v>
       </c>
-      <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4">
-        <v>18.98</v>
-      </c>
-      <c r="AY4">
-        <v>3.36</v>
-      </c>
-      <c r="AZ4">
-        <v>4.83</v>
-      </c>
-      <c r="BA4">
-        <v>61.06</v>
-      </c>
-      <c r="BB4">
-        <v>11.77</v>
-      </c>
-      <c r="BC4">
-        <v>0</v>
-      </c>
-      <c r="BD4">
-        <v>10.9</v>
-      </c>
-      <c r="BE4">
-        <v>0</v>
-      </c>
-      <c r="BF4">
-        <v>0</v>
-      </c>
-      <c r="BG4">
-        <v>84.87</v>
-      </c>
-      <c r="BH4">
-        <v>84.87</v>
-      </c>
-      <c r="BI4">
-        <v>88.83</v>
-      </c>
-      <c r="BJ4">
-        <v>7.7</v>
-      </c>
-      <c r="BK4">
-        <v>15.4</v>
-      </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:48">
       <c r="A5" s="1">
         <v>44178</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>202104</v>
       </c>
       <c r="E5">
-        <v>202104</v>
+        <v>2021</v>
       </c>
       <c r="F5">
-        <v>2021</v>
-      </c>
-      <c r="G5">
         <v>1809101472</v>
       </c>
+      <c r="G5" t="s">
+        <v>49</v>
+      </c>
       <c r="H5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>4884032000</v>
       </c>
       <c r="J5">
-        <v>4884032000</v>
-      </c>
-      <c r="K5">
         <v>78.05151515151515</v>
       </c>
-      <c r="L5" t="s">
-        <v>83</v>
+      <c r="K5" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5">
+        <v>2492238</v>
       </c>
       <c r="M5">
-        <v>2492238</v>
+        <v>94</v>
       </c>
       <c r="N5">
-        <v>94</v>
+        <v>26883</v>
       </c>
       <c r="O5">
-        <v>26883</v>
+        <v>100</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="S5">
-        <v>5.74</v>
+        <v>14.42</v>
       </c>
       <c r="T5">
-        <v>14.42</v>
+        <v>34.86</v>
       </c>
       <c r="U5">
-        <v>34.86</v>
+        <v>20.07</v>
       </c>
       <c r="V5">
-        <v>20.07</v>
+        <v>24.9</v>
       </c>
       <c r="W5">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="Y5">
-        <v>15.89</v>
+        <v>10.27</v>
       </c>
       <c r="Z5">
-        <v>10.27</v>
+        <v>73.84</v>
       </c>
       <c r="AA5">
-        <v>73.84</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -1485,31 +1209,31 @@
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG5">
-        <v>1.38</v>
+        <v>51.89</v>
       </c>
       <c r="AH5">
-        <v>51.89</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>23.12</v>
       </c>
       <c r="AJ5">
-        <v>23.12</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>9.82</v>
       </c>
       <c r="AL5">
-        <v>9.82</v>
+        <v>6.49</v>
       </c>
       <c r="AM5">
-        <v>6.49</v>
+        <v>7.29</v>
       </c>
       <c r="AN5">
-        <v>7.29</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <v>0</v>
@@ -1524,144 +1248,99 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>82.17</v>
       </c>
       <c r="AT5">
-        <v>82.17</v>
+        <v>15.79</v>
       </c>
       <c r="AU5">
-        <v>15.79</v>
+        <v>2.05</v>
       </c>
       <c r="AV5">
-        <v>2.05</v>
-      </c>
-      <c r="AW5">
-        <v>0</v>
-      </c>
-      <c r="AX5">
-        <v>42.59</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-      <c r="AZ5">
-        <v>11.49</v>
-      </c>
-      <c r="BA5">
-        <v>15.5</v>
-      </c>
-      <c r="BB5">
-        <v>30.42</v>
-      </c>
-      <c r="BC5">
-        <v>0</v>
-      </c>
-      <c r="BD5">
-        <v>1.38</v>
-      </c>
-      <c r="BE5">
-        <v>0</v>
-      </c>
-      <c r="BF5">
-        <v>7.73</v>
-      </c>
-      <c r="BG5">
-        <v>59.19</v>
-      </c>
-      <c r="BH5">
-        <v>76.56999999999999</v>
-      </c>
-      <c r="BI5">
-        <v>90.89</v>
-      </c>
-      <c r="BJ5">
-        <v>25</v>
-      </c>
-      <c r="BK5">
-        <v>33.3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:48">
       <c r="A6" s="1">
         <v>46984</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D6">
+        <v>202105</v>
       </c>
       <c r="E6">
-        <v>202105</v>
+        <v>2021</v>
       </c>
       <c r="F6">
-        <v>2021</v>
-      </c>
-      <c r="G6">
         <v>1809101472</v>
       </c>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
       <c r="H6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>4884032000</v>
       </c>
       <c r="J6">
-        <v>4884032000</v>
-      </c>
-      <c r="K6">
         <v>78.05151515151515</v>
       </c>
-      <c r="L6" t="s">
-        <v>83</v>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6">
+        <v>2173959</v>
       </c>
       <c r="M6">
-        <v>2173959</v>
+        <v>148</v>
       </c>
       <c r="N6">
-        <v>148</v>
+        <v>14541</v>
       </c>
       <c r="O6">
-        <v>14541</v>
+        <v>100</v>
       </c>
       <c r="P6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="S6">
-        <v>3.84</v>
+        <v>39.48</v>
       </c>
       <c r="T6">
-        <v>39.48</v>
+        <v>4.84</v>
       </c>
       <c r="U6">
-        <v>4.84</v>
+        <v>27.82</v>
       </c>
       <c r="V6">
-        <v>27.82</v>
+        <v>24.02</v>
       </c>
       <c r="W6">
-        <v>24.02</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>30.61</v>
       </c>
       <c r="Y6">
-        <v>30.61</v>
+        <v>35.43</v>
       </c>
       <c r="Z6">
-        <v>35.43</v>
+        <v>33.96</v>
       </c>
       <c r="AA6">
-        <v>33.96</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -1676,374 +1355,284 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AG6">
-        <v>0.95</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="AH6">
-        <v>9.130000000000001</v>
+        <v>4.39</v>
       </c>
       <c r="AI6">
-        <v>4.39</v>
+        <v>26.56</v>
       </c>
       <c r="AJ6">
-        <v>26.56</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AL6">
-        <v>3.65</v>
+        <v>31.97</v>
       </c>
       <c r="AM6">
-        <v>31.97</v>
+        <v>5.55</v>
       </c>
       <c r="AN6">
-        <v>5.55</v>
+        <v>17.81</v>
       </c>
       <c r="AO6">
-        <v>17.81</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AQ6">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>24.16</v>
       </c>
       <c r="AS6">
-        <v>24.16</v>
+        <v>51.03</v>
       </c>
       <c r="AT6">
-        <v>51.03</v>
+        <v>6</v>
       </c>
       <c r="AU6">
-        <v>6</v>
+        <v>18.09</v>
       </c>
       <c r="AV6">
-        <v>18.09</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>8.94</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>7.28</v>
-      </c>
-      <c r="BA6">
-        <v>43.7</v>
-      </c>
-      <c r="BB6">
-        <v>23.19</v>
-      </c>
-      <c r="BC6">
-        <v>16.88</v>
-      </c>
-      <c r="BD6">
-        <v>8.130000000000001</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>52.03</v>
-      </c>
-      <c r="BH6">
-        <v>54.52</v>
-      </c>
-      <c r="BI6">
-        <v>70.22</v>
-      </c>
-      <c r="BJ6">
-        <v>26.3</v>
-      </c>
-      <c r="BK6">
-        <v>26.3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:48">
       <c r="A7" s="1">
         <v>49802</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>202106</v>
       </c>
       <c r="E7">
-        <v>202106</v>
+        <v>2021</v>
       </c>
       <c r="F7">
-        <v>2021</v>
-      </c>
-      <c r="G7">
         <v>1809101472</v>
       </c>
+      <c r="G7" t="s">
+        <v>49</v>
+      </c>
       <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <v>4884032000</v>
       </c>
       <c r="J7">
-        <v>4884032000</v>
-      </c>
-      <c r="K7">
         <v>78.05151515151515</v>
       </c>
-      <c r="L7" t="s">
-        <v>83</v>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7">
+        <v>1634242</v>
       </c>
       <c r="M7">
-        <v>1634242</v>
+        <v>164</v>
       </c>
       <c r="N7">
-        <v>164</v>
+        <v>10022</v>
       </c>
       <c r="O7">
-        <v>10022</v>
+        <v>97.75</v>
       </c>
       <c r="P7">
-        <v>97.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>28.03</v>
+      </c>
+      <c r="S7">
+        <v>25.66</v>
+      </c>
+      <c r="T7">
+        <v>6.08</v>
+      </c>
+      <c r="U7">
+        <v>23.42</v>
+      </c>
+      <c r="V7">
+        <v>14.56</v>
+      </c>
+      <c r="W7">
         <v>2.25</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>28.03</v>
-      </c>
-      <c r="T7">
-        <v>25.66</v>
-      </c>
-      <c r="U7">
-        <v>6.08</v>
-      </c>
-      <c r="V7">
-        <v>23.42</v>
-      </c>
-      <c r="W7">
-        <v>14.56</v>
-      </c>
       <c r="X7">
-        <v>2.25</v>
+        <v>40.72</v>
       </c>
       <c r="Y7">
-        <v>40.72</v>
+        <v>18.8</v>
       </c>
       <c r="Z7">
+        <v>40.47</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.47</v>
+      </c>
+      <c r="AG7">
+        <v>24.13</v>
+      </c>
+      <c r="AH7">
+        <v>22.67</v>
+      </c>
+      <c r="AI7">
+        <v>20.8</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>1.78</v>
+      </c>
+      <c r="AL7">
+        <v>10.91</v>
+      </c>
+      <c r="AM7">
+        <v>10.98</v>
+      </c>
+      <c r="AN7">
+        <v>8.26</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>10.2</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
         <v>18.8</v>
       </c>
-      <c r="AA7">
-        <v>40.47</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0.47</v>
-      </c>
-      <c r="AH7">
-        <v>24.13</v>
-      </c>
-      <c r="AI7">
-        <v>22.67</v>
-      </c>
-      <c r="AJ7">
-        <v>20.8</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>1.78</v>
-      </c>
-      <c r="AM7">
-        <v>10.91</v>
-      </c>
-      <c r="AN7">
-        <v>10.98</v>
-      </c>
-      <c r="AO7">
-        <v>8.26</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>10.2</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
       <c r="AS7">
-        <v>18.8</v>
+        <v>52.51</v>
       </c>
       <c r="AT7">
-        <v>52.51</v>
+        <v>5.8</v>
       </c>
       <c r="AU7">
-        <v>5.8</v>
+        <v>12.69</v>
       </c>
       <c r="AV7">
-        <v>12.69</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>13.44</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>16.96</v>
-      </c>
-      <c r="BA7">
-        <v>17.87</v>
-      </c>
-      <c r="BB7">
-        <v>34.14</v>
-      </c>
-      <c r="BC7">
-        <v>17.59</v>
-      </c>
-      <c r="BD7">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0.47</v>
-      </c>
-      <c r="BG7">
-        <v>67.34999999999999</v>
-      </c>
-      <c r="BH7">
-        <v>75.09</v>
-      </c>
-      <c r="BI7">
-        <v>91.36</v>
-      </c>
-      <c r="BJ7">
-        <v>38.5</v>
-      </c>
-      <c r="BK7">
-        <v>15.4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:48">
       <c r="A8" s="1">
         <v>52621</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>202107</v>
       </c>
       <c r="E8">
-        <v>202107</v>
+        <v>2021</v>
       </c>
       <c r="F8">
-        <v>2021</v>
-      </c>
-      <c r="G8">
         <v>1809101472</v>
       </c>
+      <c r="G8" t="s">
+        <v>49</v>
+      </c>
       <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>4884032000</v>
       </c>
       <c r="J8">
-        <v>4884032000</v>
-      </c>
-      <c r="K8">
         <v>78.05151515151515</v>
       </c>
-      <c r="L8" t="s">
-        <v>83</v>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8">
+        <v>3038854</v>
       </c>
       <c r="M8">
-        <v>3038854</v>
+        <v>188</v>
       </c>
       <c r="N8">
-        <v>188</v>
+        <v>16075</v>
       </c>
       <c r="O8">
-        <v>16075</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="P8">
-        <v>95.90000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>8.83</v>
+      </c>
+      <c r="S8">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="T8">
+        <v>26.91</v>
+      </c>
+      <c r="U8">
+        <v>7.85</v>
+      </c>
+      <c r="V8">
+        <v>43.79</v>
+      </c>
+      <c r="W8">
         <v>4.1</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>8.83</v>
-      </c>
-      <c r="T8">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="U8">
-        <v>26.91</v>
-      </c>
-      <c r="V8">
-        <v>7.85</v>
-      </c>
-      <c r="W8">
-        <v>43.79</v>
-      </c>
       <c r="X8">
-        <v>4.1</v>
+        <v>25.85</v>
       </c>
       <c r="Y8">
-        <v>25.85</v>
+        <v>19.82</v>
       </c>
       <c r="Z8">
-        <v>19.82</v>
+        <v>54.33</v>
       </c>
       <c r="AA8">
-        <v>54.33</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -2061,180 +1650,135 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>26.84</v>
       </c>
       <c r="AH8">
-        <v>26.84</v>
+        <v>4.22</v>
       </c>
       <c r="AI8">
-        <v>4.22</v>
+        <v>40.19</v>
       </c>
       <c r="AJ8">
-        <v>40.19</v>
+        <v>0.78</v>
       </c>
       <c r="AK8">
-        <v>0.78</v>
+        <v>3.4</v>
       </c>
       <c r="AL8">
-        <v>3.4</v>
+        <v>13.93</v>
       </c>
       <c r="AM8">
-        <v>13.93</v>
+        <v>6.76</v>
       </c>
       <c r="AN8">
-        <v>6.76</v>
+        <v>3.89</v>
       </c>
       <c r="AO8">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AQ8">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>26.35</v>
       </c>
       <c r="AS8">
-        <v>26.35</v>
+        <v>47.4</v>
       </c>
       <c r="AT8">
-        <v>47.4</v>
+        <v>13.62</v>
       </c>
       <c r="AU8">
-        <v>13.62</v>
+        <v>11.04</v>
       </c>
       <c r="AV8">
-        <v>11.04</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>8.69</v>
-      </c>
-      <c r="AY8">
-        <v>20.74</v>
-      </c>
-      <c r="AZ8">
-        <v>5.53</v>
-      </c>
-      <c r="BA8">
-        <v>14.5</v>
-      </c>
-      <c r="BB8">
-        <v>47.33</v>
-      </c>
-      <c r="BC8">
-        <v>3.21</v>
-      </c>
-      <c r="BD8">
-        <v>26.35</v>
-      </c>
-      <c r="BE8">
-        <v>0</v>
-      </c>
-      <c r="BF8">
-        <v>2.85</v>
-      </c>
-      <c r="BG8">
-        <v>31.04</v>
-      </c>
-      <c r="BH8">
-        <v>55.56</v>
-      </c>
-      <c r="BI8">
-        <v>86.87</v>
-      </c>
-      <c r="BJ8">
-        <v>35.7</v>
-      </c>
-      <c r="BK8">
-        <v>17.9</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:48">
       <c r="A9" s="1">
         <v>55446</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D9">
+        <v>202108</v>
       </c>
       <c r="E9">
-        <v>202108</v>
+        <v>2021</v>
       </c>
       <c r="F9">
-        <v>2021</v>
-      </c>
-      <c r="G9">
         <v>1809101472</v>
       </c>
+      <c r="G9" t="s">
+        <v>49</v>
+      </c>
       <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>4884032000</v>
       </c>
       <c r="J9">
-        <v>4884032000</v>
-      </c>
-      <c r="K9">
         <v>78.05151515151515</v>
       </c>
-      <c r="L9" t="s">
-        <v>83</v>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9">
+        <v>3417629</v>
       </c>
       <c r="M9">
-        <v>3417629</v>
+        <v>200</v>
       </c>
       <c r="N9">
-        <v>200</v>
+        <v>17090</v>
       </c>
       <c r="O9">
-        <v>17090</v>
+        <v>83.11</v>
       </c>
       <c r="P9">
-        <v>83.11</v>
+        <v>16.89</v>
       </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.09</v>
+      </c>
+      <c r="S9">
+        <v>15.83</v>
+      </c>
+      <c r="T9">
+        <v>23.59</v>
+      </c>
+      <c r="U9">
+        <v>27.11</v>
+      </c>
+      <c r="V9">
+        <v>4.49</v>
+      </c>
+      <c r="W9">
         <v>16.89</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>12.09</v>
-      </c>
-      <c r="T9">
-        <v>15.83</v>
-      </c>
-      <c r="U9">
-        <v>23.59</v>
-      </c>
-      <c r="V9">
-        <v>27.11</v>
-      </c>
-      <c r="W9">
-        <v>4.49</v>
-      </c>
       <c r="X9">
-        <v>16.89</v>
+        <v>37.16</v>
       </c>
       <c r="Y9">
-        <v>37.16</v>
+        <v>34.48</v>
       </c>
       <c r="Z9">
-        <v>34.48</v>
+        <v>28.36</v>
       </c>
       <c r="AA9">
-        <v>28.36</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2249,34 +1793,34 @@
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="AG9">
-        <v>3.38</v>
+        <v>10.7</v>
       </c>
       <c r="AH9">
-        <v>10.7</v>
+        <v>21.56</v>
       </c>
       <c r="AI9">
-        <v>21.56</v>
+        <v>22.07</v>
       </c>
       <c r="AJ9">
-        <v>22.07</v>
+        <v>0.23</v>
       </c>
       <c r="AK9">
-        <v>0.23</v>
+        <v>4.82</v>
       </c>
       <c r="AL9">
-        <v>4.82</v>
+        <v>11.84</v>
       </c>
       <c r="AM9">
-        <v>11.84</v>
+        <v>6.15</v>
       </c>
       <c r="AN9">
-        <v>6.15</v>
+        <v>19.26</v>
       </c>
       <c r="AO9">
-        <v>19.26</v>
+        <v>0</v>
       </c>
       <c r="AP9">
         <v>0</v>
@@ -2285,147 +1829,102 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="AS9">
-        <v>7.97</v>
+        <v>63.3</v>
       </c>
       <c r="AT9">
-        <v>63.3</v>
+        <v>14.72</v>
       </c>
       <c r="AU9">
-        <v>14.72</v>
+        <v>12.81</v>
       </c>
       <c r="AV9">
-        <v>12.81</v>
-      </c>
-      <c r="AW9">
         <v>1.2</v>
       </c>
-      <c r="AX9">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="AY9">
-        <v>7.5</v>
-      </c>
-      <c r="AZ9">
-        <v>6.53</v>
-      </c>
-      <c r="BA9">
-        <v>42.4</v>
-      </c>
-      <c r="BB9">
-        <v>24.14</v>
-      </c>
-      <c r="BC9">
-        <v>11.22</v>
-      </c>
-      <c r="BD9">
-        <v>3.24</v>
-      </c>
-      <c r="BE9">
-        <v>1.5</v>
-      </c>
-      <c r="BF9">
-        <v>0.23</v>
-      </c>
-      <c r="BG9">
-        <v>41.01</v>
-      </c>
-      <c r="BH9">
-        <v>73.95</v>
-      </c>
-      <c r="BI9">
-        <v>75.06</v>
-      </c>
-      <c r="BJ9">
-        <v>24.1</v>
-      </c>
-      <c r="BK9">
-        <v>20.7</v>
-      </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:48">
       <c r="A10" s="1">
         <v>58266</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <v>202109</v>
       </c>
       <c r="E10">
-        <v>202109</v>
+        <v>2021</v>
       </c>
       <c r="F10">
-        <v>2021</v>
-      </c>
-      <c r="G10">
         <v>1809101472</v>
       </c>
+      <c r="G10" t="s">
+        <v>49</v>
+      </c>
       <c r="H10" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>4884032000</v>
       </c>
       <c r="J10">
-        <v>4884032000</v>
-      </c>
-      <c r="K10">
         <v>78.05151515151515</v>
       </c>
-      <c r="L10" t="s">
-        <v>83</v>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10">
+        <v>4631869</v>
       </c>
       <c r="M10">
-        <v>4631869</v>
+        <v>167</v>
       </c>
       <c r="N10">
-        <v>167</v>
+        <v>27753</v>
       </c>
       <c r="O10">
-        <v>27753</v>
+        <v>95.26000000000001</v>
       </c>
       <c r="P10">
-        <v>95.26000000000001</v>
+        <v>4.74</v>
       </c>
       <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>28.13</v>
+      </c>
+      <c r="S10">
+        <v>31.16</v>
+      </c>
+      <c r="T10">
+        <v>14.75</v>
+      </c>
+      <c r="U10">
+        <v>17.6</v>
+      </c>
+      <c r="V10">
+        <v>3.63</v>
+      </c>
+      <c r="W10">
         <v>4.74</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>28.13</v>
-      </c>
-      <c r="T10">
-        <v>31.16</v>
-      </c>
-      <c r="U10">
-        <v>14.75</v>
-      </c>
-      <c r="V10">
-        <v>17.6</v>
-      </c>
-      <c r="W10">
-        <v>3.63</v>
-      </c>
       <c r="X10">
-        <v>4.74</v>
+        <v>24.23</v>
       </c>
       <c r="Y10">
-        <v>24.23</v>
+        <v>49.93</v>
       </c>
       <c r="Z10">
-        <v>49.93</v>
+        <v>25.84</v>
       </c>
       <c r="AA10">
-        <v>25.84</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2440,183 +1939,138 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AG10">
-        <v>0.83</v>
+        <v>15.43</v>
       </c>
       <c r="AH10">
-        <v>15.43</v>
+        <v>23.26</v>
       </c>
       <c r="AI10">
-        <v>23.26</v>
+        <v>27.06</v>
       </c>
       <c r="AJ10">
-        <v>27.06</v>
+        <v>4.84</v>
       </c>
       <c r="AK10">
-        <v>4.84</v>
+        <v>1.08</v>
       </c>
       <c r="AL10">
+        <v>2.43</v>
+      </c>
+      <c r="AM10">
+        <v>20.49</v>
+      </c>
+      <c r="AN10">
+        <v>4.57</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>5.48</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>11.5</v>
+      </c>
+      <c r="AS10">
+        <v>44.16</v>
+      </c>
+      <c r="AT10">
+        <v>36.49</v>
+      </c>
+      <c r="AU10">
+        <v>1.28</v>
+      </c>
+      <c r="AV10">
         <v>1.08</v>
       </c>
-      <c r="AM10">
-        <v>2.43</v>
-      </c>
-      <c r="AN10">
-        <v>20.49</v>
-      </c>
-      <c r="AO10">
-        <v>4.57</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>5.48</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>11.5</v>
-      </c>
-      <c r="AT10">
-        <v>44.16</v>
-      </c>
-      <c r="AU10">
-        <v>36.49</v>
-      </c>
-      <c r="AV10">
-        <v>1.28</v>
-      </c>
-      <c r="AW10">
-        <v>1.08</v>
-      </c>
-      <c r="AX10">
-        <v>7.9</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>4.92</v>
-      </c>
-      <c r="BA10">
-        <v>21.63</v>
-      </c>
-      <c r="BB10">
-        <v>41.11</v>
-      </c>
-      <c r="BC10">
-        <v>24.43</v>
-      </c>
-      <c r="BD10">
-        <v>2.07</v>
-      </c>
-      <c r="BE10">
-        <v>0</v>
-      </c>
-      <c r="BF10">
-        <v>5.01</v>
-      </c>
-      <c r="BG10">
-        <v>69.13</v>
-      </c>
-      <c r="BH10">
-        <v>88.04000000000001</v>
-      </c>
-      <c r="BI10">
-        <v>92.73999999999999</v>
-      </c>
-      <c r="BJ10">
-        <v>25.9</v>
-      </c>
-      <c r="BK10">
-        <v>14.8</v>
-      </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:48">
       <c r="A11" s="1">
         <v>61098</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>202110</v>
       </c>
       <c r="E11">
-        <v>202110</v>
+        <v>2021</v>
       </c>
       <c r="F11">
-        <v>2021</v>
-      </c>
-      <c r="G11">
         <v>1809101472</v>
       </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
       <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>4884032000</v>
       </c>
       <c r="J11">
-        <v>4884032000</v>
-      </c>
-      <c r="K11">
         <v>78.05151515151515</v>
       </c>
-      <c r="L11" t="s">
-        <v>83</v>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11">
+        <v>3950135</v>
       </c>
       <c r="M11">
-        <v>3950135</v>
+        <v>174</v>
       </c>
       <c r="N11">
-        <v>174</v>
+        <v>22715</v>
       </c>
       <c r="O11">
-        <v>22715</v>
+        <v>100</v>
       </c>
       <c r="P11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>17.29</v>
       </c>
       <c r="S11">
-        <v>17.29</v>
+        <v>5.22</v>
       </c>
       <c r="T11">
-        <v>5.22</v>
+        <v>19.56</v>
       </c>
       <c r="U11">
-        <v>19.56</v>
+        <v>40.14</v>
       </c>
       <c r="V11">
-        <v>40.14</v>
+        <v>17.79</v>
       </c>
       <c r="W11">
-        <v>17.79</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>11.94</v>
       </c>
       <c r="Y11">
-        <v>11.94</v>
+        <v>58.86</v>
       </c>
       <c r="Z11">
-        <v>58.86</v>
+        <v>29.2</v>
       </c>
       <c r="AA11">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2631,183 +2085,138 @@
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>6.22</v>
       </c>
       <c r="AG11">
-        <v>6.22</v>
+        <v>13.58</v>
       </c>
       <c r="AH11">
-        <v>13.58</v>
+        <v>7.78</v>
       </c>
       <c r="AI11">
-        <v>7.78</v>
+        <v>20.64</v>
       </c>
       <c r="AJ11">
-        <v>20.64</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>33.78</v>
       </c>
       <c r="AL11">
-        <v>33.78</v>
+        <v>1.4</v>
       </c>
       <c r="AM11">
-        <v>1.4</v>
+        <v>16.6</v>
       </c>
       <c r="AN11">
-        <v>16.6</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AP11">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="AQ11">
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>15.85</v>
       </c>
       <c r="AS11">
-        <v>15.85</v>
+        <v>23.62</v>
       </c>
       <c r="AT11">
-        <v>23.62</v>
+        <v>27.5</v>
       </c>
       <c r="AU11">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
         <v>32.57</v>
       </c>
-      <c r="AX11">
-        <v>1.22</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>41.91</v>
-      </c>
-      <c r="BA11">
-        <v>24.24</v>
-      </c>
-      <c r="BB11">
-        <v>22.32</v>
-      </c>
-      <c r="BC11">
-        <v>10.31</v>
-      </c>
-      <c r="BD11">
-        <v>5.66</v>
-      </c>
-      <c r="BE11">
-        <v>0</v>
-      </c>
-      <c r="BF11">
-        <v>1.22</v>
-      </c>
-      <c r="BG11">
-        <v>23.68</v>
-      </c>
-      <c r="BH11">
-        <v>54.23</v>
-      </c>
-      <c r="BI11">
-        <v>55.22</v>
-      </c>
-      <c r="BJ11">
-        <v>36</v>
-      </c>
-      <c r="BK11">
-        <v>20</v>
-      </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:48">
       <c r="A12" s="1">
         <v>63930</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D12">
+        <v>202111</v>
       </c>
       <c r="E12">
-        <v>202111</v>
+        <v>2021</v>
       </c>
       <c r="F12">
-        <v>2021</v>
-      </c>
-      <c r="G12">
         <v>1809101472</v>
       </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
       <c r="H12" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>4884032000</v>
       </c>
       <c r="J12">
-        <v>4884032000</v>
-      </c>
-      <c r="K12">
         <v>78.05151515151515</v>
       </c>
-      <c r="L12" t="s">
-        <v>83</v>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12">
+        <v>3894527</v>
       </c>
       <c r="M12">
-        <v>3894527</v>
+        <v>212</v>
       </c>
       <c r="N12">
-        <v>212</v>
+        <v>18288</v>
       </c>
       <c r="O12">
-        <v>18288</v>
+        <v>100</v>
       </c>
       <c r="P12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>45.21</v>
       </c>
       <c r="S12">
-        <v>45.21</v>
+        <v>9.24</v>
       </c>
       <c r="T12">
-        <v>9.24</v>
+        <v>8.9</v>
       </c>
       <c r="U12">
-        <v>8.9</v>
+        <v>12.65</v>
       </c>
       <c r="V12">
-        <v>12.65</v>
+        <v>24.01</v>
       </c>
       <c r="W12">
-        <v>24.01</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>22.37</v>
       </c>
       <c r="Y12">
-        <v>22.37</v>
+        <v>26.89</v>
       </c>
       <c r="Z12">
-        <v>26.89</v>
+        <v>50.75</v>
       </c>
       <c r="AA12">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2822,183 +2231,138 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AG12">
-        <v>3.8</v>
+        <v>11.24</v>
       </c>
       <c r="AH12">
-        <v>11.24</v>
+        <v>29.12</v>
       </c>
       <c r="AI12">
-        <v>29.12</v>
+        <v>33.51</v>
       </c>
       <c r="AJ12">
-        <v>33.51</v>
+        <v>0</v>
       </c>
       <c r="AK12">
         <v>0</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>13.49</v>
       </c>
       <c r="AM12">
-        <v>13.49</v>
+        <v>7.9</v>
       </c>
       <c r="AN12">
-        <v>7.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>6.68</v>
+      </c>
+      <c r="AS12">
+        <v>79.38</v>
+      </c>
+      <c r="AT12">
+        <v>9.69</v>
+      </c>
+      <c r="AU12">
+        <v>3.29</v>
+      </c>
+      <c r="AV12">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>6.68</v>
-      </c>
-      <c r="AT12">
-        <v>79.38</v>
-      </c>
-      <c r="AU12">
-        <v>9.69</v>
-      </c>
-      <c r="AV12">
-        <v>3.29</v>
-      </c>
-      <c r="AW12">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AX12">
-        <v>4.1</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>7.01</v>
-      </c>
-      <c r="BA12">
-        <v>39.34</v>
-      </c>
-      <c r="BB12">
-        <v>43.81</v>
-      </c>
-      <c r="BC12">
-        <v>5.73</v>
-      </c>
-      <c r="BD12">
-        <v>10.49</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>43.73</v>
-      </c>
-      <c r="BH12">
-        <v>64.31</v>
-      </c>
-      <c r="BI12">
-        <v>84.31999999999999</v>
-      </c>
-      <c r="BJ12">
-        <v>48.1</v>
-      </c>
-      <c r="BK12">
-        <v>33.3</v>
-      </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:48">
       <c r="A13" s="1">
         <v>66762</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D13">
+        <v>202112</v>
       </c>
       <c r="E13">
-        <v>202112</v>
+        <v>2021</v>
       </c>
       <c r="F13">
-        <v>2021</v>
-      </c>
-      <c r="G13">
         <v>1809101472</v>
       </c>
+      <c r="G13" t="s">
+        <v>49</v>
+      </c>
       <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>4884032000</v>
       </c>
       <c r="J13">
-        <v>4884032000</v>
-      </c>
-      <c r="K13">
         <v>78.05151515151515</v>
       </c>
-      <c r="L13" t="s">
-        <v>83</v>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13">
+        <v>2931965</v>
       </c>
       <c r="M13">
-        <v>2931965</v>
+        <v>226</v>
       </c>
       <c r="N13">
-        <v>226</v>
+        <v>12621</v>
       </c>
       <c r="O13">
-        <v>12621</v>
+        <v>100</v>
       </c>
       <c r="P13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>44.54</v>
       </c>
       <c r="S13">
-        <v>44.54</v>
+        <v>10.05</v>
       </c>
       <c r="T13">
-        <v>10.05</v>
+        <v>16.73</v>
       </c>
       <c r="U13">
-        <v>16.73</v>
+        <v>5.89</v>
       </c>
       <c r="V13">
-        <v>5.89</v>
+        <v>22.79</v>
       </c>
       <c r="W13">
-        <v>22.79</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>22.2</v>
       </c>
       <c r="Y13">
-        <v>22.2</v>
+        <v>42.31</v>
       </c>
       <c r="Z13">
-        <v>42.31</v>
+        <v>35.48</v>
       </c>
       <c r="AA13">
-        <v>35.48</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -3010,37 +2374,37 @@
         <v>0</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AF13">
-        <v>2.42</v>
+        <v>1.98</v>
       </c>
       <c r="AG13">
-        <v>1.98</v>
+        <v>10.75</v>
       </c>
       <c r="AH13">
-        <v>10.75</v>
+        <v>24.6</v>
       </c>
       <c r="AI13">
-        <v>24.6</v>
+        <v>21.33</v>
       </c>
       <c r="AJ13">
-        <v>21.33</v>
+        <v>1.74</v>
       </c>
       <c r="AK13">
-        <v>1.74</v>
+        <v>0</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AM13">
-        <v>10.5</v>
+        <v>10.93</v>
       </c>
       <c r="AN13">
-        <v>10.93</v>
+        <v>15.75</v>
       </c>
       <c r="AO13">
-        <v>15.75</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>0</v>
@@ -3049,147 +2413,102 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="AS13">
-        <v>3.72</v>
+        <v>81.64</v>
       </c>
       <c r="AT13">
-        <v>81.64</v>
+        <v>14.64</v>
       </c>
       <c r="AU13">
-        <v>14.64</v>
+        <v>0</v>
       </c>
       <c r="AV13">
         <v>0</v>
       </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>4.28</v>
-      </c>
-      <c r="BA13">
-        <v>24.24</v>
-      </c>
-      <c r="BB13">
-        <v>47.93</v>
-      </c>
-      <c r="BC13">
-        <v>13.75</v>
-      </c>
-      <c r="BD13">
-        <v>5.05</v>
-      </c>
-      <c r="BE13">
-        <v>4.16</v>
-      </c>
-      <c r="BF13">
-        <v>0</v>
-      </c>
-      <c r="BG13">
-        <v>58.45</v>
-      </c>
-      <c r="BH13">
-        <v>81.03</v>
-      </c>
-      <c r="BI13">
-        <v>85.98</v>
-      </c>
-      <c r="BJ13">
-        <v>37.5</v>
-      </c>
-      <c r="BK13">
-        <v>37.5</v>
-      </c>
     </row>
-    <row r="14" spans="1:63">
+    <row r="14" spans="1:48">
       <c r="A14" s="1">
         <v>69596</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D14">
+        <v>202201</v>
       </c>
       <c r="E14">
-        <v>202201</v>
+        <v>2022</v>
       </c>
       <c r="F14">
-        <v>2022</v>
-      </c>
-      <c r="G14">
         <v>1809101472</v>
       </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
       <c r="H14" t="s">
-        <v>81</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I14">
+        <v>4884032000</v>
       </c>
       <c r="J14">
-        <v>4884032000</v>
-      </c>
-      <c r="K14">
         <v>78.05151515151515</v>
       </c>
-      <c r="L14" t="s">
-        <v>83</v>
+      <c r="K14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14">
+        <v>2185039</v>
       </c>
       <c r="M14">
-        <v>2185039</v>
+        <v>164</v>
       </c>
       <c r="N14">
-        <v>164</v>
+        <v>13297</v>
       </c>
       <c r="O14">
-        <v>13297</v>
+        <v>100</v>
       </c>
       <c r="P14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="S14">
-        <v>10.6</v>
+        <v>17.37</v>
       </c>
       <c r="T14">
-        <v>17.37</v>
+        <v>9.24</v>
       </c>
       <c r="U14">
-        <v>9.24</v>
+        <v>28.87</v>
       </c>
       <c r="V14">
-        <v>28.87</v>
+        <v>33.92</v>
       </c>
       <c r="W14">
-        <v>33.92</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>19.38</v>
       </c>
       <c r="Y14">
-        <v>19.38</v>
+        <v>37.97</v>
       </c>
       <c r="Z14">
-        <v>37.97</v>
+        <v>42.65</v>
       </c>
       <c r="AA14">
-        <v>42.65</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -3210,28 +2529,28 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>60.35</v>
       </c>
       <c r="AI14">
-        <v>60.35</v>
+        <v>25.79</v>
       </c>
       <c r="AJ14">
-        <v>25.79</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="AL14">
-        <v>5.22</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="AN14">
-        <v>7.55</v>
+        <v>1.09</v>
       </c>
       <c r="AO14">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AP14">
         <v>0</v>
@@ -3240,147 +2559,102 @@
         <v>0</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AS14">
-        <v>3.52</v>
+        <v>36.99</v>
       </c>
       <c r="AT14">
-        <v>36.99</v>
+        <v>16.65</v>
       </c>
       <c r="AU14">
-        <v>16.65</v>
+        <v>32.85</v>
       </c>
       <c r="AV14">
-        <v>32.85</v>
-      </c>
-      <c r="AW14">
         <v>10</v>
       </c>
-      <c r="AX14">
-        <v>10.62</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>2.46</v>
-      </c>
-      <c r="BA14">
-        <v>40.79</v>
-      </c>
-      <c r="BB14">
-        <v>41.54</v>
-      </c>
-      <c r="BC14">
-        <v>4.6</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>2.77</v>
-      </c>
-      <c r="BG14">
-        <v>29.08</v>
-      </c>
-      <c r="BH14">
-        <v>49.24</v>
-      </c>
-      <c r="BI14">
-        <v>49.63</v>
-      </c>
-      <c r="BJ14">
-        <v>20</v>
-      </c>
-      <c r="BK14">
-        <v>33.3</v>
-      </c>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:48">
       <c r="A15" s="1">
         <v>72428</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D15">
+        <v>202202</v>
       </c>
       <c r="E15">
-        <v>202202</v>
+        <v>2022</v>
       </c>
       <c r="F15">
-        <v>2022</v>
-      </c>
-      <c r="G15">
         <v>1809101472</v>
       </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
       <c r="H15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>4884032000</v>
       </c>
       <c r="J15">
-        <v>4884032000</v>
-      </c>
-      <c r="K15">
         <v>78.05151515151515</v>
       </c>
-      <c r="L15" t="s">
-        <v>83</v>
+      <c r="K15" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15">
+        <v>2276329</v>
       </c>
       <c r="M15">
-        <v>2276329</v>
+        <v>126</v>
       </c>
       <c r="N15">
-        <v>126</v>
+        <v>17917</v>
       </c>
       <c r="O15">
-        <v>17917</v>
+        <v>100</v>
       </c>
       <c r="P15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="S15">
-        <v>8.720000000000001</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="T15">
-        <v>8.140000000000001</v>
+        <v>23.42</v>
       </c>
       <c r="U15">
-        <v>23.42</v>
+        <v>41.98</v>
       </c>
       <c r="V15">
-        <v>41.98</v>
+        <v>17.74</v>
       </c>
       <c r="W15">
-        <v>17.74</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y15">
-        <v>4</v>
+        <v>45.49</v>
       </c>
       <c r="Z15">
-        <v>45.49</v>
+        <v>50.51</v>
       </c>
       <c r="AA15">
-        <v>50.51</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0</v>
@@ -3398,31 +2672,31 @@
         <v>0</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>9.58</v>
       </c>
       <c r="AH15">
-        <v>9.58</v>
+        <v>18.6</v>
       </c>
       <c r="AI15">
-        <v>18.6</v>
+        <v>41.3</v>
       </c>
       <c r="AJ15">
-        <v>41.3</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AL15">
-        <v>1.67</v>
+        <v>0.7</v>
       </c>
       <c r="AM15">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>28.14</v>
       </c>
       <c r="AO15">
-        <v>28.14</v>
+        <v>0</v>
       </c>
       <c r="AP15">
         <v>0</v>
@@ -3434,144 +2708,99 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>77.81</v>
       </c>
       <c r="AT15">
-        <v>77.81</v>
+        <v>22.19</v>
       </c>
       <c r="AU15">
-        <v>22.19</v>
+        <v>0</v>
       </c>
       <c r="AV15">
         <v>0</v>
       </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>6.79</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>3.37</v>
-      </c>
-      <c r="BA15">
-        <v>20.35</v>
-      </c>
-      <c r="BB15">
-        <v>69.48999999999999</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>70.67</v>
-      </c>
-      <c r="BH15">
-        <v>76.65000000000001</v>
-      </c>
-      <c r="BI15">
-        <v>80.26000000000001</v>
-      </c>
-      <c r="BJ15">
-        <v>42.9</v>
-      </c>
-      <c r="BK15">
-        <v>28.6</v>
-      </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:48">
       <c r="A16" s="1">
         <v>75275</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>202203</v>
       </c>
       <c r="E16">
-        <v>202203</v>
+        <v>2022</v>
       </c>
       <c r="F16">
-        <v>2022</v>
-      </c>
-      <c r="G16">
         <v>1809101472</v>
       </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
       <c r="H16" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I16">
+        <v>4884032000</v>
       </c>
       <c r="J16">
-        <v>4884032000</v>
-      </c>
-      <c r="K16">
         <v>78.05151515151515</v>
       </c>
-      <c r="L16" t="s">
-        <v>83</v>
+      <c r="K16" t="s">
+        <v>51</v>
+      </c>
+      <c r="L16">
+        <v>3189761</v>
       </c>
       <c r="M16">
-        <v>3189761</v>
+        <v>268</v>
       </c>
       <c r="N16">
-        <v>268</v>
+        <v>11866</v>
       </c>
       <c r="O16">
-        <v>11866</v>
+        <v>100</v>
       </c>
       <c r="P16">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>25.42</v>
       </c>
       <c r="S16">
-        <v>25.42</v>
+        <v>7.82</v>
       </c>
       <c r="T16">
-        <v>7.82</v>
+        <v>18.14</v>
       </c>
       <c r="U16">
-        <v>18.14</v>
+        <v>25.94</v>
       </c>
       <c r="V16">
-        <v>25.94</v>
+        <v>22.69</v>
       </c>
       <c r="W16">
-        <v>22.69</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>18.09</v>
       </c>
       <c r="Y16">
-        <v>18.09</v>
+        <v>53.41</v>
       </c>
       <c r="Z16">
-        <v>53.41</v>
+        <v>28.5</v>
       </c>
       <c r="AA16">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
@@ -3583,186 +2812,141 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>7.84</v>
       </c>
       <c r="AF16">
-        <v>7.84</v>
+        <v>1.82</v>
       </c>
       <c r="AG16">
-        <v>1.82</v>
+        <v>2.56</v>
       </c>
       <c r="AH16">
-        <v>2.56</v>
+        <v>11.65</v>
       </c>
       <c r="AI16">
-        <v>11.65</v>
+        <v>10.72</v>
       </c>
       <c r="AJ16">
-        <v>10.72</v>
+        <v>3.15</v>
       </c>
       <c r="AK16">
-        <v>3.15</v>
+        <v>2.07</v>
       </c>
       <c r="AL16">
-        <v>2.07</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="AM16">
-        <v>9.789999999999999</v>
+        <v>24.44</v>
       </c>
       <c r="AN16">
-        <v>24.44</v>
+        <v>25.96</v>
       </c>
       <c r="AO16">
-        <v>25.96</v>
+        <v>1.28</v>
       </c>
       <c r="AP16">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AQ16">
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>7.43</v>
       </c>
       <c r="AS16">
-        <v>7.43</v>
+        <v>74.92</v>
       </c>
       <c r="AT16">
-        <v>74.92</v>
+        <v>7.42</v>
       </c>
       <c r="AU16">
-        <v>7.42</v>
+        <v>5.38</v>
       </c>
       <c r="AV16">
-        <v>5.38</v>
-      </c>
-      <c r="AW16">
         <v>3.57</v>
       </c>
-      <c r="AX16">
-        <v>14.16</v>
-      </c>
-      <c r="AY16">
-        <v>0.84</v>
-      </c>
-      <c r="AZ16">
-        <v>3.56</v>
-      </c>
-      <c r="BA16">
-        <v>20.55</v>
-      </c>
-      <c r="BB16">
-        <v>50.18</v>
-      </c>
-      <c r="BC16">
-        <v>10.72</v>
-      </c>
-      <c r="BD16">
-        <v>1.69</v>
-      </c>
-      <c r="BE16">
-        <v>5.66</v>
-      </c>
-      <c r="BF16">
-        <v>5.33</v>
-      </c>
-      <c r="BG16">
-        <v>38.87</v>
-      </c>
-      <c r="BH16">
-        <v>58.39</v>
-      </c>
-      <c r="BI16">
-        <v>61.87</v>
-      </c>
-      <c r="BJ16">
-        <v>21.2</v>
-      </c>
-      <c r="BK16">
-        <v>24.2</v>
-      </c>
     </row>
-    <row r="17" spans="1:63">
+    <row r="17" spans="1:48">
       <c r="A17" s="1">
         <v>78120</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>202204</v>
       </c>
       <c r="E17">
-        <v>202204</v>
+        <v>2022</v>
       </c>
       <c r="F17">
-        <v>2022</v>
-      </c>
-      <c r="G17">
         <v>1809101472</v>
       </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
       <c r="H17" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I17">
+        <v>4884032000</v>
       </c>
       <c r="J17">
-        <v>4884032000</v>
-      </c>
-      <c r="K17">
         <v>78.05151515151515</v>
       </c>
-      <c r="L17" t="s">
-        <v>83</v>
+      <c r="K17" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17">
+        <v>3900057</v>
       </c>
       <c r="M17">
-        <v>3900057</v>
+        <v>226</v>
       </c>
       <c r="N17">
-        <v>226</v>
+        <v>17472</v>
       </c>
       <c r="O17">
-        <v>17472</v>
+        <v>100</v>
       </c>
       <c r="P17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>22.93</v>
       </c>
       <c r="S17">
-        <v>22.93</v>
+        <v>11.47</v>
       </c>
       <c r="T17">
-        <v>11.47</v>
+        <v>15.96</v>
       </c>
       <c r="U17">
-        <v>15.96</v>
+        <v>27.59</v>
       </c>
       <c r="V17">
-        <v>27.59</v>
+        <v>22.04</v>
       </c>
       <c r="W17">
-        <v>22.04</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>30.33</v>
       </c>
       <c r="Y17">
-        <v>30.33</v>
+        <v>35.35</v>
       </c>
       <c r="Z17">
-        <v>35.35</v>
+        <v>34.31</v>
       </c>
       <c r="AA17">
-        <v>34.31</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0</v>
@@ -3777,34 +2961,34 @@
         <v>0</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="AG17">
-        <v>0.72</v>
+        <v>7.77</v>
       </c>
       <c r="AH17">
-        <v>7.77</v>
+        <v>26.05</v>
       </c>
       <c r="AI17">
-        <v>26.05</v>
+        <v>28.54</v>
       </c>
       <c r="AJ17">
-        <v>28.54</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AL17">
-        <v>1.08</v>
+        <v>14.2</v>
       </c>
       <c r="AM17">
-        <v>14.2</v>
+        <v>6.03</v>
       </c>
       <c r="AN17">
-        <v>6.03</v>
+        <v>15.61</v>
       </c>
       <c r="AO17">
-        <v>15.61</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <v>0</v>
@@ -3813,147 +2997,102 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>11.49</v>
       </c>
       <c r="AS17">
-        <v>11.49</v>
+        <v>52.43</v>
       </c>
       <c r="AT17">
-        <v>52.43</v>
+        <v>13.91</v>
       </c>
       <c r="AU17">
-        <v>13.91</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AV17">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AW17">
         <v>13.39</v>
       </c>
-      <c r="AX17">
-        <v>7.95</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>8.94</v>
-      </c>
-      <c r="BA17">
-        <v>42.13</v>
-      </c>
-      <c r="BB17">
-        <v>21</v>
-      </c>
-      <c r="BC17">
-        <v>19.98</v>
-      </c>
-      <c r="BD17">
-        <v>8.35</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>49</v>
-      </c>
-      <c r="BH17">
-        <v>54.72</v>
-      </c>
-      <c r="BI17">
-        <v>70.2</v>
-      </c>
-      <c r="BJ17">
-        <v>51.6</v>
-      </c>
-      <c r="BK17">
-        <v>25.8</v>
-      </c>
     </row>
-    <row r="18" spans="1:63">
+    <row r="18" spans="1:48">
       <c r="A18" s="1">
         <v>80973</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>80</v>
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>202205</v>
       </c>
       <c r="E18">
-        <v>202205</v>
+        <v>2022</v>
       </c>
       <c r="F18">
-        <v>2022</v>
-      </c>
-      <c r="G18">
         <v>1809101472</v>
       </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
       <c r="H18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>4884032000</v>
       </c>
       <c r="J18">
-        <v>4884032000</v>
-      </c>
-      <c r="K18">
         <v>78.05151515151515</v>
       </c>
-      <c r="L18" t="s">
-        <v>83</v>
+      <c r="K18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18">
+        <v>8002544</v>
       </c>
       <c r="M18">
-        <v>8002544</v>
+        <v>180</v>
       </c>
       <c r="N18">
-        <v>180</v>
+        <v>44694</v>
       </c>
       <c r="O18">
-        <v>44694</v>
+        <v>100</v>
       </c>
       <c r="P18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>26.37</v>
       </c>
       <c r="S18">
-        <v>26.37</v>
+        <v>52.27</v>
       </c>
       <c r="T18">
-        <v>52.27</v>
+        <v>5.29</v>
       </c>
       <c r="U18">
-        <v>5.29</v>
+        <v>6.39</v>
       </c>
       <c r="V18">
-        <v>6.39</v>
+        <v>9.68</v>
       </c>
       <c r="W18">
-        <v>9.68</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>15.71</v>
       </c>
       <c r="Y18">
-        <v>15.71</v>
+        <v>13.59</v>
       </c>
       <c r="Z18">
-        <v>13.59</v>
+        <v>70.7</v>
       </c>
       <c r="AA18">
-        <v>70.7</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3968,34 +3107,34 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="AG18">
-        <v>7.61</v>
+        <v>1.75</v>
       </c>
       <c r="AH18">
-        <v>1.75</v>
+        <v>9.19</v>
       </c>
       <c r="AI18">
-        <v>9.19</v>
+        <v>21.63</v>
       </c>
       <c r="AJ18">
-        <v>21.63</v>
+        <v>0</v>
       </c>
       <c r="AK18">
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>8.19</v>
       </c>
       <c r="AM18">
-        <v>8.19</v>
+        <v>46.97</v>
       </c>
       <c r="AN18">
-        <v>46.97</v>
+        <v>4.67</v>
       </c>
       <c r="AO18">
-        <v>4.67</v>
+        <v>0</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -4004,64 +3143,19 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AS18">
-        <v>2.83</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="AT18">
-        <v>82.31999999999999</v>
+        <v>13.19</v>
       </c>
       <c r="AU18">
-        <v>13.19</v>
+        <v>0.59</v>
       </c>
       <c r="AV18">
-        <v>0.59</v>
-      </c>
-      <c r="AW18">
         <v>1.07</v>
-      </c>
-      <c r="AX18">
-        <v>46.26</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>2.08</v>
-      </c>
-      <c r="BA18">
-        <v>19.75</v>
-      </c>
-      <c r="BB18">
-        <v>19.69</v>
-      </c>
-      <c r="BC18">
-        <v>12.23</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>77.59</v>
-      </c>
-      <c r="BH18">
-        <v>80.95999999999999</v>
-      </c>
-      <c r="BI18">
-        <v>85.48999999999999</v>
-      </c>
-      <c r="BJ18">
-        <v>61.5</v>
-      </c>
-      <c r="BK18">
-        <v>19.2</v>
       </c>
     </row>
   </sheetData>

--- a/시장분석용_정보/시장분석용_4884032000.xlsx
+++ b/시장분석용_정보/시장분석용_4884032000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV18"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>35785</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202101</v>
@@ -696,10 +600,10 @@
         <v>1809101472</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4884032000</v>
@@ -708,7 +612,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>271530</v>
@@ -720,7 +624,7 @@
         <v>10700</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -729,108 +633,60 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>68.59999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="T2">
-        <v>8.970000000000001</v>
+        <v>12.52</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>22.43</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>12.52</v>
+        <v>0</v>
       </c>
       <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>21.5</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>78.5</v>
       </c>
-      <c r="Z2">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>78.5</v>
-      </c>
-      <c r="AI2">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="AJ2">
-        <v>12.52</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>21.5</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>78.5</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>38580</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202102</v>
@@ -842,10 +698,10 @@
         <v>1809101472</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4884032000</v>
@@ -854,7 +710,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>653619</v>
@@ -866,25 +722,25 @@
         <v>10550</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>6.24</v>
       </c>
       <c r="R3">
         <v>31.6</v>
       </c>
       <c r="S3">
-        <v>19.59</v>
+        <v>40.92</v>
       </c>
       <c r="T3">
-        <v>41.94</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="U3">
-        <v>6.87</v>
+        <v>5.85</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -893,25 +749,25 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>26.15</v>
+        <v>7.11</v>
       </c>
       <c r="Y3">
-        <v>11.77</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>62.09</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>22.12</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>65.8</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>12.09</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -919,64 +775,16 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>6.24</v>
-      </c>
-      <c r="AH3">
-        <v>31.6</v>
-      </c>
-      <c r="AI3">
-        <v>40.92</v>
-      </c>
-      <c r="AJ3">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="AK3">
-        <v>5.85</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>7.11</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>22.12</v>
-      </c>
-      <c r="AS3">
-        <v>65.8</v>
-      </c>
-      <c r="AT3">
-        <v>12.09</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>41373</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202103</v>
@@ -988,10 +796,10 @@
         <v>1809101472</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4884032000</v>
@@ -1000,7 +808,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>937111</v>
@@ -1012,117 +820,69 @@
         <v>12293</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>18.98</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>20.77</v>
       </c>
       <c r="R4">
-        <v>18.87</v>
+        <v>12.85</v>
       </c>
       <c r="S4">
-        <v>14.8</v>
+        <v>2.55</v>
       </c>
       <c r="T4">
-        <v>5.21</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>31.07</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>30.04</v>
+        <v>6.34</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>11.33</v>
       </c>
       <c r="X4">
-        <v>11.06</v>
+        <v>27.17</v>
       </c>
       <c r="Y4">
-        <v>19.9</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>69.03</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>14.26</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>81.78</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>18.98</v>
-      </c>
-      <c r="AG4">
-        <v>20.77</v>
-      </c>
-      <c r="AH4">
-        <v>12.85</v>
-      </c>
-      <c r="AI4">
-        <v>2.55</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>6.34</v>
-      </c>
-      <c r="AM4">
-        <v>11.33</v>
-      </c>
-      <c r="AN4">
-        <v>27.17</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>14.26</v>
-      </c>
-      <c r="AS4">
-        <v>81.78</v>
-      </c>
-      <c r="AT4">
-        <v>3.96</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>44178</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202104</v>
@@ -1134,10 +894,10 @@
         <v>1809101472</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4884032000</v>
@@ -1146,7 +906,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>2492238</v>
@@ -1158,40 +918,40 @@
         <v>26883</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>51.89</v>
       </c>
       <c r="R5">
-        <v>5.74</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>14.42</v>
+        <v>23.12</v>
       </c>
       <c r="T5">
-        <v>34.86</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>20.07</v>
+        <v>9.82</v>
       </c>
       <c r="V5">
-        <v>24.9</v>
+        <v>6.49</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>7.29</v>
       </c>
       <c r="X5">
-        <v>15.89</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>10.27</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>73.84</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1200,75 +960,27 @@
         <v>0</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>82.17</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>15.79</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AF5">
-        <v>1.38</v>
-      </c>
-      <c r="AG5">
-        <v>51.89</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>23.12</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>9.82</v>
-      </c>
-      <c r="AL5">
-        <v>6.49</v>
-      </c>
-      <c r="AM5">
-        <v>7.29</v>
-      </c>
-      <c r="AN5">
-        <v>0</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>82.17</v>
-      </c>
-      <c r="AT5">
-        <v>15.79</v>
-      </c>
-      <c r="AU5">
-        <v>2.05</v>
-      </c>
-      <c r="AV5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>46984</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202105</v>
@@ -1280,10 +992,10 @@
         <v>1809101472</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4884032000</v>
@@ -1292,7 +1004,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>2173959</v>
@@ -1304,117 +1016,69 @@
         <v>14541</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="R6">
-        <v>3.84</v>
+        <v>4.39</v>
       </c>
       <c r="S6">
-        <v>39.48</v>
+        <v>26.56</v>
       </c>
       <c r="T6">
-        <v>4.84</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>27.82</v>
+        <v>3.65</v>
       </c>
       <c r="V6">
-        <v>24.02</v>
+        <v>31.97</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="X6">
-        <v>30.61</v>
+        <v>17.81</v>
       </c>
       <c r="Y6">
-        <v>35.43</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>33.96</v>
+        <v>0.71</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>24.16</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>51.03</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>18.09</v>
       </c>
       <c r="AF6">
-        <v>0.95</v>
-      </c>
-      <c r="AG6">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="AH6">
-        <v>4.39</v>
-      </c>
-      <c r="AI6">
-        <v>26.56</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>3.65</v>
-      </c>
-      <c r="AL6">
-        <v>31.97</v>
-      </c>
-      <c r="AM6">
-        <v>5.55</v>
-      </c>
-      <c r="AN6">
-        <v>17.81</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0.71</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>24.16</v>
-      </c>
-      <c r="AS6">
-        <v>51.03</v>
-      </c>
-      <c r="AT6">
-        <v>6</v>
-      </c>
-      <c r="AU6">
-        <v>18.09</v>
-      </c>
-      <c r="AV6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>49802</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202106</v>
@@ -1426,10 +1090,10 @@
         <v>1809101472</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4884032000</v>
@@ -1438,7 +1102,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>1634242</v>
@@ -1450,117 +1114,69 @@
         <v>10022</v>
       </c>
       <c r="O7">
-        <v>97.75</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>2.25</v>
+        <v>0.47</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>24.13</v>
       </c>
       <c r="R7">
-        <v>28.03</v>
+        <v>22.67</v>
       </c>
       <c r="S7">
-        <v>25.66</v>
+        <v>20.8</v>
       </c>
       <c r="T7">
-        <v>6.08</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>23.42</v>
+        <v>1.78</v>
       </c>
       <c r="V7">
-        <v>14.56</v>
+        <v>10.91</v>
       </c>
       <c r="W7">
-        <v>2.25</v>
+        <v>10.98</v>
       </c>
       <c r="X7">
-        <v>40.72</v>
+        <v>8.26</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>10.2</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>18.8</v>
       </c>
-      <c r="Z7">
-        <v>40.47</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
       <c r="AC7">
-        <v>0</v>
+        <v>52.51</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>12.69</v>
       </c>
       <c r="AF7">
-        <v>0.47</v>
-      </c>
-      <c r="AG7">
-        <v>24.13</v>
-      </c>
-      <c r="AH7">
-        <v>22.67</v>
-      </c>
-      <c r="AI7">
-        <v>20.8</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>1.78</v>
-      </c>
-      <c r="AL7">
-        <v>10.91</v>
-      </c>
-      <c r="AM7">
-        <v>10.98</v>
-      </c>
-      <c r="AN7">
-        <v>8.26</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>10.2</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>18.8</v>
-      </c>
-      <c r="AS7">
-        <v>52.51</v>
-      </c>
-      <c r="AT7">
-        <v>5.8</v>
-      </c>
-      <c r="AU7">
-        <v>12.69</v>
-      </c>
-      <c r="AV7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>52621</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202107</v>
@@ -1572,10 +1188,10 @@
         <v>1809101472</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4884032000</v>
@@ -1584,7 +1200,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>3038854</v>
@@ -1596,117 +1212,69 @@
         <v>16075</v>
       </c>
       <c r="O8">
-        <v>95.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>26.84</v>
       </c>
       <c r="R8">
-        <v>8.83</v>
+        <v>4.22</v>
       </c>
       <c r="S8">
-        <v>8.539999999999999</v>
+        <v>40.19</v>
       </c>
       <c r="T8">
-        <v>26.91</v>
+        <v>0.78</v>
       </c>
       <c r="U8">
-        <v>7.85</v>
+        <v>3.4</v>
       </c>
       <c r="V8">
-        <v>43.79</v>
+        <v>13.93</v>
       </c>
       <c r="W8">
-        <v>4.1</v>
+        <v>6.76</v>
       </c>
       <c r="X8">
-        <v>25.85</v>
+        <v>3.89</v>
       </c>
       <c r="Y8">
-        <v>19.82</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>54.33</v>
+        <v>1.59</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>26.35</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>13.62</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>11.04</v>
       </c>
       <c r="AF8">
         <v>0</v>
       </c>
-      <c r="AG8">
-        <v>26.84</v>
-      </c>
-      <c r="AH8">
-        <v>4.22</v>
-      </c>
-      <c r="AI8">
-        <v>40.19</v>
-      </c>
-      <c r="AJ8">
-        <v>0.78</v>
-      </c>
-      <c r="AK8">
-        <v>3.4</v>
-      </c>
-      <c r="AL8">
-        <v>13.93</v>
-      </c>
-      <c r="AM8">
-        <v>6.76</v>
-      </c>
-      <c r="AN8">
-        <v>3.89</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>1.59</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>26.35</v>
-      </c>
-      <c r="AS8">
-        <v>47.4</v>
-      </c>
-      <c r="AT8">
-        <v>13.62</v>
-      </c>
-      <c r="AU8">
-        <v>11.04</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>55446</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202108</v>
@@ -1718,10 +1286,10 @@
         <v>1809101472</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4884032000</v>
@@ -1730,7 +1298,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>3417629</v>
@@ -1742,117 +1310,69 @@
         <v>17090</v>
       </c>
       <c r="O9">
-        <v>83.11</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>16.89</v>
+        <v>3.38</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="R9">
-        <v>12.09</v>
+        <v>21.56</v>
       </c>
       <c r="S9">
-        <v>15.83</v>
+        <v>22.07</v>
       </c>
       <c r="T9">
-        <v>23.59</v>
+        <v>0.23</v>
       </c>
       <c r="U9">
-        <v>27.11</v>
+        <v>4.82</v>
       </c>
       <c r="V9">
-        <v>4.49</v>
+        <v>11.84</v>
       </c>
       <c r="W9">
-        <v>16.89</v>
+        <v>6.15</v>
       </c>
       <c r="X9">
-        <v>37.16</v>
+        <v>19.26</v>
       </c>
       <c r="Y9">
-        <v>34.48</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>28.36</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>7.97</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>63.3</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>14.72</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>12.81</v>
       </c>
       <c r="AF9">
-        <v>3.38</v>
-      </c>
-      <c r="AG9">
-        <v>10.7</v>
-      </c>
-      <c r="AH9">
-        <v>21.56</v>
-      </c>
-      <c r="AI9">
-        <v>22.07</v>
-      </c>
-      <c r="AJ9">
-        <v>0.23</v>
-      </c>
-      <c r="AK9">
-        <v>4.82</v>
-      </c>
-      <c r="AL9">
-        <v>11.84</v>
-      </c>
-      <c r="AM9">
-        <v>6.15</v>
-      </c>
-      <c r="AN9">
-        <v>19.26</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>7.97</v>
-      </c>
-      <c r="AS9">
-        <v>63.3</v>
-      </c>
-      <c r="AT9">
-        <v>14.72</v>
-      </c>
-      <c r="AU9">
-        <v>12.81</v>
-      </c>
-      <c r="AV9">
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>58266</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202109</v>
@@ -1864,10 +1384,10 @@
         <v>1809101472</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4884032000</v>
@@ -1876,7 +1396,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>4631869</v>
@@ -1888,117 +1408,69 @@
         <v>27753</v>
       </c>
       <c r="O10">
-        <v>95.26000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>4.74</v>
+        <v>0.83</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>15.43</v>
       </c>
       <c r="R10">
-        <v>28.13</v>
+        <v>23.26</v>
       </c>
       <c r="S10">
-        <v>31.16</v>
+        <v>27.06</v>
       </c>
       <c r="T10">
-        <v>14.75</v>
+        <v>4.84</v>
       </c>
       <c r="U10">
-        <v>17.6</v>
+        <v>1.08</v>
       </c>
       <c r="V10">
-        <v>3.63</v>
+        <v>2.43</v>
       </c>
       <c r="W10">
-        <v>4.74</v>
+        <v>20.49</v>
       </c>
       <c r="X10">
-        <v>24.23</v>
+        <v>4.57</v>
       </c>
       <c r="Y10">
-        <v>49.93</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>25.84</v>
+        <v>5.48</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>44.16</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>36.49</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF10">
-        <v>0.83</v>
-      </c>
-      <c r="AG10">
-        <v>15.43</v>
-      </c>
-      <c r="AH10">
-        <v>23.26</v>
-      </c>
-      <c r="AI10">
-        <v>27.06</v>
-      </c>
-      <c r="AJ10">
-        <v>4.84</v>
-      </c>
-      <c r="AK10">
         <v>1.08</v>
       </c>
-      <c r="AL10">
-        <v>2.43</v>
-      </c>
-      <c r="AM10">
-        <v>20.49</v>
-      </c>
-      <c r="AN10">
-        <v>4.57</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>5.48</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>11.5</v>
-      </c>
-      <c r="AS10">
-        <v>44.16</v>
-      </c>
-      <c r="AT10">
-        <v>36.49</v>
-      </c>
-      <c r="AU10">
-        <v>1.28</v>
-      </c>
-      <c r="AV10">
-        <v>1.08</v>
-      </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>61098</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202110</v>
@@ -2010,10 +1482,10 @@
         <v>1809101472</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4884032000</v>
@@ -2022,7 +1494,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>3950135</v>
@@ -2034,117 +1506,69 @@
         <v>22715</v>
       </c>
       <c r="O11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.22</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>13.58</v>
       </c>
       <c r="R11">
-        <v>17.29</v>
+        <v>7.78</v>
       </c>
       <c r="S11">
-        <v>5.22</v>
+        <v>20.64</v>
       </c>
       <c r="T11">
-        <v>19.56</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>40.14</v>
+        <v>33.78</v>
       </c>
       <c r="V11">
-        <v>17.79</v>
+        <v>1.4</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>16.6</v>
       </c>
       <c r="X11">
-        <v>11.94</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>58.86</v>
+        <v>0.47</v>
       </c>
       <c r="Z11">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>15.85</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>23.62</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>6.22</v>
-      </c>
-      <c r="AG11">
-        <v>13.58</v>
-      </c>
-      <c r="AH11">
-        <v>7.78</v>
-      </c>
-      <c r="AI11">
-        <v>20.64</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>33.78</v>
-      </c>
-      <c r="AL11">
-        <v>1.4</v>
-      </c>
-      <c r="AM11">
-        <v>16.6</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0.47</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>15.85</v>
-      </c>
-      <c r="AS11">
-        <v>23.62</v>
-      </c>
-      <c r="AT11">
-        <v>27.5</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
         <v>32.57</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>63930</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202111</v>
@@ -2156,10 +1580,10 @@
         <v>1809101472</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4884032000</v>
@@ -2168,7 +1592,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>3894527</v>
@@ -2180,117 +1604,69 @@
         <v>18288</v>
       </c>
       <c r="O12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>11.24</v>
       </c>
       <c r="R12">
-        <v>45.21</v>
+        <v>29.12</v>
       </c>
       <c r="S12">
-        <v>9.24</v>
+        <v>33.51</v>
       </c>
       <c r="T12">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>12.65</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>24.01</v>
+        <v>13.49</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="X12">
-        <v>22.37</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y12">
-        <v>26.89</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>50.75</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>6.68</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>79.38</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="AF12">
-        <v>3.8</v>
-      </c>
-      <c r="AG12">
-        <v>11.24</v>
-      </c>
-      <c r="AH12">
-        <v>29.12</v>
-      </c>
-      <c r="AI12">
-        <v>33.51</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>13.49</v>
-      </c>
-      <c r="AM12">
-        <v>7.9</v>
-      </c>
-      <c r="AN12">
         <v>0.9399999999999999</v>
       </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>6.68</v>
-      </c>
-      <c r="AS12">
-        <v>79.38</v>
-      </c>
-      <c r="AT12">
-        <v>9.69</v>
-      </c>
-      <c r="AU12">
-        <v>3.29</v>
-      </c>
-      <c r="AV12">
-        <v>0.9399999999999999</v>
-      </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>66762</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202112</v>
@@ -2302,10 +1678,10 @@
         <v>1809101472</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4884032000</v>
@@ -2314,7 +1690,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>2931965</v>
@@ -2326,117 +1702,69 @@
         <v>12621</v>
       </c>
       <c r="O13">
-        <v>100</v>
+        <v>2.42</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="R13">
-        <v>44.54</v>
+        <v>24.6</v>
       </c>
       <c r="S13">
-        <v>10.05</v>
+        <v>21.33</v>
       </c>
       <c r="T13">
-        <v>16.73</v>
+        <v>1.74</v>
       </c>
       <c r="U13">
-        <v>5.89</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>22.79</v>
+        <v>10.5</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>10.93</v>
       </c>
       <c r="X13">
-        <v>22.2</v>
+        <v>15.75</v>
       </c>
       <c r="Y13">
-        <v>42.31</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>35.48</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>81.64</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>14.64</v>
       </c>
       <c r="AE13">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>1.98</v>
-      </c>
-      <c r="AG13">
-        <v>10.75</v>
-      </c>
-      <c r="AH13">
-        <v>24.6</v>
-      </c>
-      <c r="AI13">
-        <v>21.33</v>
-      </c>
-      <c r="AJ13">
-        <v>1.74</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>10.5</v>
-      </c>
-      <c r="AM13">
-        <v>10.93</v>
-      </c>
-      <c r="AN13">
-        <v>15.75</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>3.72</v>
-      </c>
-      <c r="AS13">
-        <v>81.64</v>
-      </c>
-      <c r="AT13">
-        <v>14.64</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>69596</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202201</v>
@@ -2448,10 +1776,10 @@
         <v>1809101472</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4884032000</v>
@@ -2460,7 +1788,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>2185039</v>
@@ -2472,7 +1800,7 @@
         <v>13297</v>
       </c>
       <c r="O14">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -2481,108 +1809,60 @@
         <v>0</v>
       </c>
       <c r="R14">
-        <v>10.6</v>
+        <v>60.35</v>
       </c>
       <c r="S14">
-        <v>17.37</v>
+        <v>25.79</v>
       </c>
       <c r="T14">
-        <v>9.24</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>28.87</v>
+        <v>5.22</v>
       </c>
       <c r="V14">
-        <v>33.92</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="X14">
-        <v>19.38</v>
+        <v>1.09</v>
       </c>
       <c r="Y14">
-        <v>37.97</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>42.65</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>3.52</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>36.99</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>16.65</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>32.85</v>
       </c>
       <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>60.35</v>
-      </c>
-      <c r="AI14">
-        <v>25.79</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>5.22</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>7.55</v>
-      </c>
-      <c r="AN14">
-        <v>1.09</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>3.52</v>
-      </c>
-      <c r="AS14">
-        <v>36.99</v>
-      </c>
-      <c r="AT14">
-        <v>16.65</v>
-      </c>
-      <c r="AU14">
-        <v>32.85</v>
-      </c>
-      <c r="AV14">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>72428</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202202</v>
@@ -2594,10 +1874,10 @@
         <v>1809101472</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4884032000</v>
@@ -2606,7 +1886,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>2276329</v>
@@ -2618,40 +1898,40 @@
         <v>17917</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>9.58</v>
       </c>
       <c r="R15">
-        <v>8.720000000000001</v>
+        <v>18.6</v>
       </c>
       <c r="S15">
-        <v>8.140000000000001</v>
+        <v>41.3</v>
       </c>
       <c r="T15">
-        <v>23.42</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>41.98</v>
+        <v>1.67</v>
       </c>
       <c r="V15">
-        <v>17.74</v>
+        <v>0.7</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>4</v>
+        <v>28.14</v>
       </c>
       <c r="Y15">
-        <v>45.49</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>50.51</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0</v>
@@ -2660,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>77.81</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>22.19</v>
       </c>
       <c r="AE15">
         <v>0</v>
@@ -2671,64 +1951,16 @@
       <c r="AF15">
         <v>0</v>
       </c>
-      <c r="AG15">
-        <v>9.58</v>
-      </c>
-      <c r="AH15">
-        <v>18.6</v>
-      </c>
-      <c r="AI15">
-        <v>41.3</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>1.67</v>
-      </c>
-      <c r="AL15">
-        <v>0.7</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>28.14</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>77.81</v>
-      </c>
-      <c r="AT15">
-        <v>22.19</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>75275</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202203</v>
@@ -2740,10 +1972,10 @@
         <v>1809101472</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4884032000</v>
@@ -2752,7 +1984,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>3189761</v>
@@ -2764,117 +1996,69 @@
         <v>11866</v>
       </c>
       <c r="O16">
-        <v>100</v>
+        <v>7.84</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="R16">
-        <v>25.42</v>
+        <v>11.65</v>
       </c>
       <c r="S16">
-        <v>7.82</v>
+        <v>10.72</v>
       </c>
       <c r="T16">
-        <v>18.14</v>
+        <v>3.15</v>
       </c>
       <c r="U16">
-        <v>25.94</v>
+        <v>2.07</v>
       </c>
       <c r="V16">
-        <v>22.69</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>24.44</v>
       </c>
       <c r="X16">
-        <v>18.09</v>
+        <v>25.96</v>
       </c>
       <c r="Y16">
-        <v>53.41</v>
+        <v>1.28</v>
       </c>
       <c r="Z16">
-        <v>28.5</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>7.43</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>74.92</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>7.42</v>
       </c>
       <c r="AE16">
-        <v>7.84</v>
+        <v>5.38</v>
       </c>
       <c r="AF16">
-        <v>1.82</v>
-      </c>
-      <c r="AG16">
-        <v>2.56</v>
-      </c>
-      <c r="AH16">
-        <v>11.65</v>
-      </c>
-      <c r="AI16">
-        <v>10.72</v>
-      </c>
-      <c r="AJ16">
-        <v>3.15</v>
-      </c>
-      <c r="AK16">
-        <v>2.07</v>
-      </c>
-      <c r="AL16">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="AM16">
-        <v>24.44</v>
-      </c>
-      <c r="AN16">
-        <v>25.96</v>
-      </c>
-      <c r="AO16">
-        <v>1.28</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>7.43</v>
-      </c>
-      <c r="AS16">
-        <v>74.92</v>
-      </c>
-      <c r="AT16">
-        <v>7.42</v>
-      </c>
-      <c r="AU16">
-        <v>5.38</v>
-      </c>
-      <c r="AV16">
         <v>3.57</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>78120</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202204</v>
@@ -2886,10 +2070,10 @@
         <v>1809101472</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4884032000</v>
@@ -2898,7 +2082,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>3900057</v>
@@ -2910,117 +2094,69 @@
         <v>17472</v>
       </c>
       <c r="O17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>7.77</v>
       </c>
       <c r="R17">
-        <v>22.93</v>
+        <v>26.05</v>
       </c>
       <c r="S17">
-        <v>11.47</v>
+        <v>28.54</v>
       </c>
       <c r="T17">
-        <v>15.96</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>27.59</v>
+        <v>1.08</v>
       </c>
       <c r="V17">
-        <v>22.04</v>
+        <v>14.2</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>6.03</v>
       </c>
       <c r="X17">
-        <v>30.33</v>
+        <v>15.61</v>
       </c>
       <c r="Y17">
-        <v>35.35</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>34.31</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>11.49</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>52.43</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>13.91</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="AF17">
-        <v>0.72</v>
-      </c>
-      <c r="AG17">
-        <v>7.77</v>
-      </c>
-      <c r="AH17">
-        <v>26.05</v>
-      </c>
-      <c r="AI17">
-        <v>28.54</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>1.08</v>
-      </c>
-      <c r="AL17">
-        <v>14.2</v>
-      </c>
-      <c r="AM17">
-        <v>6.03</v>
-      </c>
-      <c r="AN17">
-        <v>15.61</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>11.49</v>
-      </c>
-      <c r="AS17">
-        <v>52.43</v>
-      </c>
-      <c r="AT17">
-        <v>13.91</v>
-      </c>
-      <c r="AU17">
-        <v>8.779999999999999</v>
-      </c>
-      <c r="AV17">
         <v>13.39</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>80973</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202205</v>
@@ -3032,10 +2168,10 @@
         <v>1809101472</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4884032000</v>
@@ -3044,7 +2180,7 @@
         <v>78.05151515151515</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>8002544</v>
@@ -3056,105 +2192,57 @@
         <v>44694</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.61</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R18">
-        <v>26.37</v>
+        <v>9.19</v>
       </c>
       <c r="S18">
-        <v>52.27</v>
+        <v>21.63</v>
       </c>
       <c r="T18">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>6.39</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>9.68</v>
+        <v>8.19</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>46.97</v>
       </c>
       <c r="X18">
-        <v>15.71</v>
+        <v>4.67</v>
       </c>
       <c r="Y18">
-        <v>13.59</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>70.7</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>82.31999999999999</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>13.19</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="AF18">
-        <v>7.61</v>
-      </c>
-      <c r="AG18">
-        <v>1.75</v>
-      </c>
-      <c r="AH18">
-        <v>9.19</v>
-      </c>
-      <c r="AI18">
-        <v>21.63</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>8.19</v>
-      </c>
-      <c r="AM18">
-        <v>46.97</v>
-      </c>
-      <c r="AN18">
-        <v>4.67</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>2.83</v>
-      </c>
-      <c r="AS18">
-        <v>82.31999999999999</v>
-      </c>
-      <c r="AT18">
-        <v>13.19</v>
-      </c>
-      <c r="AU18">
-        <v>0.59</v>
-      </c>
-      <c r="AV18">
         <v>1.07</v>
       </c>
     </row>
